--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2146,7 +2146,7 @@
       <c r="D2" s="4">
         <v>0.833333333333333</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -2166,7 +2166,7 @@
       <c r="D3" s="7">
         <v>0.555555555555556</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2186,7 +2186,9 @@
       <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7">
+        <v>0.925</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -2206,7 +2208,7 @@
       <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -2226,7 +2228,7 @@
       <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -2246,7 +2248,9 @@
       <c r="D7" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7">
+        <v>0.875</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -2266,7 +2270,9 @@
       <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -2286,7 +2292,9 @@
       <c r="D9" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7">
+        <v>0.95</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -2306,7 +2314,9 @@
       <c r="D10" s="7">
         <v>0.954545454545455</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2326,7 +2336,7 @@
       <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2346,7 +2356,7 @@
       <c r="D12" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -2366,7 +2376,7 @@
       <c r="D13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2386,7 +2396,9 @@
       <c r="D14" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2406,7 +2418,9 @@
       <c r="D15" s="7">
         <v>0.9090909090909089</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -2426,7 +2440,7 @@
       <c r="D16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2446,7 +2460,9 @@
       <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -2466,7 +2482,7 @@
       <c r="D18" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2486,7 +2502,7 @@
       <c r="D19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2506,7 +2522,9 @@
       <c r="D20" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -2526,7 +2544,7 @@
       <c r="D21" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2546,7 +2564,9 @@
       <c r="D22" s="7">
         <v>0</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="7">
+        <v>0.8625</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2566,7 +2586,9 @@
       <c r="D23" s="7">
         <v>0.9090909090909089</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="7">
+        <v>0.95</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2586,7 +2608,7 @@
       <c r="D24" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2606,7 +2628,9 @@
       <c r="D25" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="7">
+        <v>0.85</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2626,7 +2650,9 @@
       <c r="D26" s="7">
         <v>0.9090909090909089</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -2646,7 +2672,7 @@
       <c r="D27" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2666,7 +2692,7 @@
       <c r="D28" s="7">
         <v>0.555555555555556</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -2686,7 +2712,7 @@
       <c r="D29" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -2706,7 +2732,9 @@
       <c r="D30" s="7">
         <v>0.954545454545455</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="7">
+        <v>0.95</v>
+      </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -2726,7 +2754,7 @@
       <c r="D31" s="7">
         <v>0.555555555555556</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -2746,7 +2774,9 @@
       <c r="D32" s="7">
         <v>0.9090909090909089</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -2766,7 +2796,7 @@
       <c r="D33" s="7">
         <v>0.555555555555556</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -2786,7 +2816,9 @@
       <c r="D34" s="7">
         <v>0</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2806,7 +2838,7 @@
       <c r="D35" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -2826,7 +2858,9 @@
       <c r="D36" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2846,7 +2880,7 @@
       <c r="D37" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2866,7 +2900,7 @@
       <c r="D38" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2886,7 +2920,7 @@
       <c r="D39" s="7">
         <v>0</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2906,7 +2940,9 @@
       <c r="D40" s="7">
         <v>0.9090909090909089</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2926,7 +2962,9 @@
       <c r="D41" s="7">
         <v>0</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2946,7 +2984,7 @@
       <c r="D42" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2966,7 +3004,9 @@
       <c r="D43" s="7">
         <v>0</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -2986,7 +3026,9 @@
       <c r="D44" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -3006,7 +3048,7 @@
       <c r="D45" s="7">
         <v>0</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -3026,7 +3068,7 @@
       <c r="D46" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -3046,7 +3088,7 @@
       <c r="D47" s="7">
         <v>0</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -3066,7 +3108,9 @@
       <c r="D48" s="7">
         <v>0.954545454545455</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -3086,7 +3130,9 @@
       <c r="D49" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -3106,7 +3152,9 @@
       <c r="D50" s="7">
         <v>0</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -3126,7 +3174,7 @@
       <c r="D51" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -3146,7 +3194,7 @@
       <c r="D52" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -3166,7 +3214,9 @@
       <c r="D53" s="7">
         <v>0.954545454545455</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="E53" s="7">
+        <v>0.875</v>
+      </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -3186,7 +3236,9 @@
       <c r="D54" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -3206,7 +3258,7 @@
       <c r="D55" s="7">
         <v>0</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -3226,7 +3278,9 @@
       <c r="D56" s="7">
         <v>0</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -3246,7 +3300,7 @@
       <c r="D57" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -3266,7 +3320,9 @@
       <c r="D58" s="7">
         <v>0</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -3286,7 +3342,9 @@
       <c r="D59" s="7">
         <v>0</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -3306,7 +3364,7 @@
       <c r="D60" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -3326,7 +3384,9 @@
       <c r="D61" s="7">
         <v>0</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -3346,7 +3406,9 @@
       <c r="D62" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -3366,7 +3428,9 @@
       <c r="D63" s="7">
         <v>0.863636363636364</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -3386,7 +3450,9 @@
       <c r="D64" s="7">
         <v>0</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -3406,7 +3472,9 @@
       <c r="D65" s="7">
         <v>0</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -3426,7 +3494,9 @@
       <c r="D66" s="7">
         <v>0.954545454545455</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="7">
+        <v>0.875</v>
+      </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -3446,7 +3516,7 @@
       <c r="D67" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>Surname</t>
   </si>
@@ -279,6 +279,12 @@
     </r>
   </si>
   <si>
+    <t>Dube</t>
+  </si>
+  <si>
+    <t>H210245E</t>
+  </si>
+  <si>
     <t>Jarai</t>
   </si>
   <si>
@@ -849,6 +855,12 @@
       </rPr>
       <t>h210077g@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Tseriwa</t>
+  </si>
+  <si>
+    <t>H210661A</t>
   </si>
   <si>
     <t>Tsiga</t>
@@ -2087,7 +2099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -2146,7 +2158,9 @@
       <c r="D2" s="4">
         <v>0.833333333333333</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>0.901639344262295</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -2166,7 +2180,9 @@
       <c r="D3" s="7">
         <v>0.555555555555556</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>0.901639344262295</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2208,7 +2224,9 @@
       <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>0.754098360655738</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -2228,7 +2246,9 @@
       <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>0.557377049180328</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -2336,7 +2356,9 @@
       <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>0.901639344262295</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2356,7 +2378,9 @@
       <c r="D12" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -2376,7 +2400,9 @@
       <c r="D13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7">
+        <v>0.770491803278689</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2440,7 +2466,9 @@
       <c r="D16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7">
+        <v>0.852459016393443</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2482,7 +2510,9 @@
       <c r="D18" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7">
+        <v>0.704918032786885</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2502,7 +2532,9 @@
       <c r="D19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7">
+        <v>0.8032786885245899</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2517,13 +2549,13 @@
         <v>49</v>
       </c>
       <c r="C20" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>0.863636363636364</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>0.9125</v>
+        <v>0</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -2539,12 +2571,14 @@
         <v>51</v>
       </c>
       <c r="C21" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="7"/>
+        <v>0.863636363636364</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2559,13 +2593,13 @@
         <v>53</v>
       </c>
       <c r="C22" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E22" s="7">
-        <v>0.8625</v>
+        <v>0</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -2584,10 +2618,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>0.9090909090909089</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>0.95</v>
+        <v>0.8625</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -2603,12 +2637,14 @@
         <v>57</v>
       </c>
       <c r="C24" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E24" s="7"/>
+        <v>0.9090909090909089</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.95</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2623,13 +2659,13 @@
         <v>59</v>
       </c>
       <c r="C25" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>0.863636363636364</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E25" s="7">
-        <v>0.85</v>
+        <v>0.852459016393443</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2648,10 +2684,10 @@
         <v>17</v>
       </c>
       <c r="D26" s="7">
-        <v>0.9090909090909089</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E26" s="7">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2667,12 +2703,14 @@
         <v>63</v>
       </c>
       <c r="C27" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="7">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="E27" s="7"/>
+        <v>0.9090909090909089</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2690,9 +2728,11 @@
         <v>12</v>
       </c>
       <c r="D28" s="7">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="E28" s="7"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.639344262295082</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -2710,9 +2750,11 @@
         <v>12</v>
       </c>
       <c r="D29" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>0.555555555555556</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.8032786885245899</v>
+      </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -2727,13 +2769,13 @@
         <v>69</v>
       </c>
       <c r="C30" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>0.954545454545455</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E30" s="7">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -2749,12 +2791,14 @@
         <v>71</v>
       </c>
       <c r="C31" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31" s="7">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="E31" s="7"/>
+        <v>0.954545454545455</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.95</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -2769,13 +2813,13 @@
         <v>73</v>
       </c>
       <c r="C32" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>0.9090909090909089</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E32" s="7">
-        <v>0.8375</v>
+        <v>0.672131147540984</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2791,12 +2835,14 @@
         <v>75</v>
       </c>
       <c r="C33" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D33" s="7">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="E33" s="7"/>
+        <v>0.9090909090909089</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -2811,13 +2857,13 @@
         <v>77</v>
       </c>
       <c r="C34" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E34" s="7">
-        <v>0.8375</v>
+        <v>0.8032786885245899</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2833,12 +2879,14 @@
         <v>79</v>
       </c>
       <c r="C35" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D35" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E35" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -2853,13 +2901,13 @@
         <v>81</v>
       </c>
       <c r="C36" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D36" s="7">
-        <v>0.863636363636364</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E36" s="7">
-        <v>0.9125</v>
+        <v>0</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -2875,12 +2923,14 @@
         <v>83</v>
       </c>
       <c r="C37" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D37" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E37" s="7"/>
+        <v>0.863636363636364</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2898,9 +2948,11 @@
         <v>12</v>
       </c>
       <c r="D38" s="7">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="E38" s="7"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.688524590163934</v>
+      </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2918,9 +2970,11 @@
         <v>12</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2935,13 +2989,13 @@
         <v>89</v>
       </c>
       <c r="C40" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7">
-        <v>0.9090909090909089</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7">
-        <v>0.9125</v>
+        <v>0.557377049180328</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2960,10 +3014,10 @@
         <v>17</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="E41" s="7">
-        <v>0.8375</v>
+        <v>0.9125</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2979,12 +3033,14 @@
         <v>93</v>
       </c>
       <c r="C42" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D42" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E42" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.8375</v>
+      </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2999,13 +3055,13 @@
         <v>95</v>
       </c>
       <c r="C43" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E43" s="7">
-        <v>0.9125</v>
+        <v>0.754098360655738</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -3024,7 +3080,7 @@
         <v>17</v>
       </c>
       <c r="D44" s="7">
-        <v>0.863636363636364</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7">
         <v>0.9125</v>
@@ -3043,12 +3099,14 @@
         <v>99</v>
       </c>
       <c r="C45" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>0.863636363636364</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -3066,9 +3124,11 @@
         <v>12</v>
       </c>
       <c r="D46" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E46" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -3086,9 +3146,11 @@
         <v>12</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
-      </c>
-      <c r="E47" s="7"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.8032786885245899</v>
+      </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -3103,13 +3165,13 @@
         <v>105</v>
       </c>
       <c r="C48" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D48" s="7">
-        <v>0.954545454545455</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7">
-        <v>0</v>
+        <v>0.540983606557377</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -3128,7 +3190,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="7">
-        <v>0.863636363636364</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="E49" s="7">
         <v>0</v>
@@ -3150,10 +3212,10 @@
         <v>17</v>
       </c>
       <c r="D50" s="7">
-        <v>0</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E50" s="7">
-        <v>0.9125</v>
+        <v>0</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -3169,12 +3231,14 @@
         <v>111</v>
       </c>
       <c r="C51" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D51" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.9125</v>
+      </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -3194,7 +3258,9 @@
       <c r="D52" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7">
+        <v>0.8032786885245899</v>
+      </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -3209,13 +3275,13 @@
         <v>115</v>
       </c>
       <c r="C53" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D53" s="7">
-        <v>0.954545454545455</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E53" s="7">
-        <v>0.875</v>
+        <v>0.8032786885245899</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -3234,10 +3300,10 @@
         <v>17</v>
       </c>
       <c r="D54" s="7">
-        <v>0.863636363636364</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="E54" s="7">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -3253,12 +3319,14 @@
         <v>119</v>
       </c>
       <c r="C55" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
-      </c>
-      <c r="E55" s="7"/>
+        <v>0.863636363636364</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -3273,13 +3341,13 @@
         <v>121</v>
       </c>
       <c r="C56" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D56" s="7">
         <v>0</v>
       </c>
       <c r="E56" s="7">
-        <v>0</v>
+        <v>0.786885245901639</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -3295,12 +3363,14 @@
         <v>123</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D57" s="7">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="E57" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -3315,13 +3385,13 @@
         <v>125</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D58" s="7">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="E58" s="7">
-        <v>0</v>
+        <v>0.852459016393443</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -3359,12 +3429,14 @@
         <v>129</v>
       </c>
       <c r="C60" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D60" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E60" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -3379,13 +3451,13 @@
         <v>131</v>
       </c>
       <c r="C61" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D61" s="7">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E61" s="7">
-        <v>0.8375</v>
+        <v>0.852459016393443</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -3404,10 +3476,10 @@
         <v>17</v>
       </c>
       <c r="D62" s="7">
-        <v>0.863636363636364</v>
+        <v>0</v>
       </c>
       <c r="E62" s="7">
-        <v>0.8</v>
+        <v>0.8375</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -3429,7 +3501,7 @@
         <v>0.863636363636364</v>
       </c>
       <c r="E63" s="7">
-        <v>0.9125</v>
+        <v>0.8</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -3448,10 +3520,10 @@
         <v>17</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E64" s="7">
-        <v>0.8375</v>
+        <v>0.9125</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -3473,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="7">
-        <v>0</v>
+        <v>0.8375</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -3489,13 +3561,13 @@
         <v>141</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D66" s="7">
-        <v>0.954545454545455</v>
+        <v>0</v>
       </c>
       <c r="E66" s="7">
-        <v>0.875</v>
+        <v>0.688524590163934</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -3511,17 +3583,63 @@
         <v>143</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D67" s="7">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="E67" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
+    </row>
+    <row r="68" ht="14.35" customHeight="1">
+      <c r="A68" t="s" s="6">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s" s="6">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.954545454545455</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" ht="14.35" customHeight="1">
+      <c r="A69" t="s" s="6">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s" s="6">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0.754098360655738</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3541,45 +3659,45 @@
     <hyperlink ref="B16" r:id="rId14" location="" tooltip="" display="h210532g@hit.ac.zw"/>
     <hyperlink ref="B17" r:id="rId15" location="" tooltip="" display="h210140r@hit.ac.zw"/>
     <hyperlink ref="B18" r:id="rId16" location="" tooltip="" display="h210617v@hit.ac.zw"/>
-    <hyperlink ref="B19" r:id="rId17" location="" tooltip="" display="h150346e@hit.ac.zw"/>
-    <hyperlink ref="B20" r:id="rId18" location="" tooltip="" display="h210063c@hit.ac.zw"/>
-    <hyperlink ref="B22" r:id="rId19" location="" tooltip="" display="h210193v@hit.ac.zw"/>
-    <hyperlink ref="B23" r:id="rId20" location="" tooltip="" display="h210143q@hit.ac.zw"/>
-    <hyperlink ref="B24" r:id="rId21" location="" tooltip="" display="h210054b@hit.ac.zw"/>
-    <hyperlink ref="B25" r:id="rId22" location="" tooltip="" display="h210309h@hit.ac.zw"/>
-    <hyperlink ref="B26" r:id="rId23" location="" tooltip="" display="h210445w@hit.ac.zw"/>
-    <hyperlink ref="B28" r:id="rId24" location="" tooltip="" display="h210403q@hit.ac.zw"/>
-    <hyperlink ref="B30" r:id="rId25" location="" tooltip="" display="h210498n@hit.ac.zw"/>
-    <hyperlink ref="B31" r:id="rId26" location="" tooltip="" display="h210572q@hit.ac.zw"/>
-    <hyperlink ref="B34" r:id="rId27" location="" tooltip="" display="h210591h@hit.ac.zw"/>
-    <hyperlink ref="B35" r:id="rId28" location="" tooltip="" display="h210649a@hit.ac.zw"/>
-    <hyperlink ref="B36" r:id="rId29" location="" tooltip="" display="h210093z@hit.ac.zw"/>
-    <hyperlink ref="B38" r:id="rId30" location="" tooltip="" display="h180278g@hit.ac.zw"/>
-    <hyperlink ref="B39" r:id="rId31" location="" tooltip="" display="h210688r@hit.ac.zw"/>
-    <hyperlink ref="B41" r:id="rId32" location="" tooltip="" display="h210545y@hit.ac.zw"/>
-    <hyperlink ref="B43" r:id="rId33" location="" tooltip="" display="h210081t@hit.ac.zw"/>
-    <hyperlink ref="B44" r:id="rId34" location="" tooltip="" display="h210100j@hit.ac.zw"/>
-    <hyperlink ref="B45" r:id="rId35" location="" tooltip="" display="h210594p@hit.ac.zw"/>
-    <hyperlink ref="B46" r:id="rId36" location="" tooltip="" display="h210087z@hit.ac.zw"/>
-    <hyperlink ref="B47" r:id="rId37" location="" tooltip="" display="h210145z@hit.ac.zw"/>
-    <hyperlink ref="B48" r:id="rId38" location="" tooltip="" display="h210392t@hit.ac.zw"/>
-    <hyperlink ref="B49" r:id="rId39" location="" tooltip="" display="h210522f@hit.ac.zw"/>
-    <hyperlink ref="B50" r:id="rId40" location="" tooltip="" display="h210216r@hit.ac.zw"/>
-    <hyperlink ref="B51" r:id="rId41" location="" tooltip="" display="h210358c@hit.ac.zw"/>
-    <hyperlink ref="B52" r:id="rId42" location="" tooltip="" display="h210171v@hit.ac.zw"/>
-    <hyperlink ref="B54" r:id="rId43" location="" tooltip="" display="h210655v@hit.ac.zw"/>
-    <hyperlink ref="B55" r:id="rId44" location="" tooltip="" display="h210547a@hit.ac.zw"/>
-    <hyperlink ref="B56" r:id="rId45" location="" tooltip="" display="h190270p@hit.ac.zw"/>
-    <hyperlink ref="B57" r:id="rId46" location="" tooltip="" display="h210426b@hit.ac.zw"/>
-    <hyperlink ref="B58" r:id="rId47" location="" tooltip="" display="h210510b@hit.ac.zw"/>
-    <hyperlink ref="B59" r:id="rId48" location="" tooltip="" display="h210647b@hit.ac.zw"/>
-    <hyperlink ref="B60" r:id="rId49" location="" tooltip="" display="h210679m@hit.ac.zw"/>
-    <hyperlink ref="B61" r:id="rId50" location="" tooltip="" display="h210526f@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId51" location="" tooltip="" display="h210404p@hit.ac.zw"/>
-    <hyperlink ref="B63" r:id="rId52" location="" tooltip="" display="h210607w@hit.ac.zw"/>
-    <hyperlink ref="B64" r:id="rId53" location="" tooltip="" display="h210077g@hit.ac.zw"/>
-    <hyperlink ref="B65" r:id="rId54" location="" tooltip="" display="h210514q@hit.ac.zw"/>
-    <hyperlink ref="B66" r:id="rId55" location="" tooltip="" display="h210041e@hit.ac.zw"/>
+    <hyperlink ref="B20" r:id="rId17" location="" tooltip="" display="h150346e@hit.ac.zw"/>
+    <hyperlink ref="B21" r:id="rId18" location="" tooltip="" display="h210063c@hit.ac.zw"/>
+    <hyperlink ref="B23" r:id="rId19" location="" tooltip="" display="h210193v@hit.ac.zw"/>
+    <hyperlink ref="B24" r:id="rId20" location="" tooltip="" display="h210143q@hit.ac.zw"/>
+    <hyperlink ref="B25" r:id="rId21" location="" tooltip="" display="h210054b@hit.ac.zw"/>
+    <hyperlink ref="B26" r:id="rId22" location="" tooltip="" display="h210309h@hit.ac.zw"/>
+    <hyperlink ref="B27" r:id="rId23" location="" tooltip="" display="h210445w@hit.ac.zw"/>
+    <hyperlink ref="B29" r:id="rId24" location="" tooltip="" display="h210403q@hit.ac.zw"/>
+    <hyperlink ref="B31" r:id="rId25" location="" tooltip="" display="h210498n@hit.ac.zw"/>
+    <hyperlink ref="B32" r:id="rId26" location="" tooltip="" display="h210572q@hit.ac.zw"/>
+    <hyperlink ref="B35" r:id="rId27" location="" tooltip="" display="h210591h@hit.ac.zw"/>
+    <hyperlink ref="B36" r:id="rId28" location="" tooltip="" display="h210649a@hit.ac.zw"/>
+    <hyperlink ref="B37" r:id="rId29" location="" tooltip="" display="h210093z@hit.ac.zw"/>
+    <hyperlink ref="B39" r:id="rId30" location="" tooltip="" display="h180278g@hit.ac.zw"/>
+    <hyperlink ref="B40" r:id="rId31" location="" tooltip="" display="h210688r@hit.ac.zw"/>
+    <hyperlink ref="B42" r:id="rId32" location="" tooltip="" display="h210545y@hit.ac.zw"/>
+    <hyperlink ref="B44" r:id="rId33" location="" tooltip="" display="h210081t@hit.ac.zw"/>
+    <hyperlink ref="B45" r:id="rId34" location="" tooltip="" display="h210100j@hit.ac.zw"/>
+    <hyperlink ref="B46" r:id="rId35" location="" tooltip="" display="h210594p@hit.ac.zw"/>
+    <hyperlink ref="B47" r:id="rId36" location="" tooltip="" display="h210087z@hit.ac.zw"/>
+    <hyperlink ref="B48" r:id="rId37" location="" tooltip="" display="h210145z@hit.ac.zw"/>
+    <hyperlink ref="B49" r:id="rId38" location="" tooltip="" display="h210392t@hit.ac.zw"/>
+    <hyperlink ref="B50" r:id="rId39" location="" tooltip="" display="h210522f@hit.ac.zw"/>
+    <hyperlink ref="B51" r:id="rId40" location="" tooltip="" display="h210216r@hit.ac.zw"/>
+    <hyperlink ref="B52" r:id="rId41" location="" tooltip="" display="h210358c@hit.ac.zw"/>
+    <hyperlink ref="B53" r:id="rId42" location="" tooltip="" display="h210171v@hit.ac.zw"/>
+    <hyperlink ref="B55" r:id="rId43" location="" tooltip="" display="h210655v@hit.ac.zw"/>
+    <hyperlink ref="B56" r:id="rId44" location="" tooltip="" display="h210547a@hit.ac.zw"/>
+    <hyperlink ref="B57" r:id="rId45" location="" tooltip="" display="h190270p@hit.ac.zw"/>
+    <hyperlink ref="B58" r:id="rId46" location="" tooltip="" display="h210426b@hit.ac.zw"/>
+    <hyperlink ref="B59" r:id="rId47" location="" tooltip="" display="h210510b@hit.ac.zw"/>
+    <hyperlink ref="B60" r:id="rId48" location="" tooltip="" display="h210647b@hit.ac.zw"/>
+    <hyperlink ref="B61" r:id="rId49" location="" tooltip="" display="h210679m@hit.ac.zw"/>
+    <hyperlink ref="B62" r:id="rId50" location="" tooltip="" display="h210526f@hit.ac.zw"/>
+    <hyperlink ref="B63" r:id="rId51" location="" tooltip="" display="h210404p@hit.ac.zw"/>
+    <hyperlink ref="B64" r:id="rId52" location="" tooltip="" display="h210607w@hit.ac.zw"/>
+    <hyperlink ref="B65" r:id="rId53" location="" tooltip="" display="h210077g@hit.ac.zw"/>
+    <hyperlink ref="B67" r:id="rId54" location="" tooltip="" display="h210514q@hit.ac.zw"/>
+    <hyperlink ref="B68" r:id="rId55" location="" tooltip="" display="h210041e@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>Surname</t>
   </si>
@@ -235,6 +235,12 @@
       </rPr>
       <t>h210032p@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Chiota</t>
+  </si>
+  <si>
+    <t>H210130V</t>
   </si>
   <si>
     <t>Chiremba</t>
@@ -2099,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -2161,7 +2167,7 @@
       <c r="E2" s="4">
         <v>0.901639344262295</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2183,7 +2189,7 @@
       <c r="E3" s="7">
         <v>0.901639344262295</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -2205,7 +2211,9 @@
       <c r="E4" s="7">
         <v>0.925</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7">
+        <v>0.674418604651163</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2227,7 +2235,7 @@
       <c r="E5" s="7">
         <v>0.754098360655738</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2249,7 +2257,7 @@
       <c r="E6" s="7">
         <v>0.557377049180328</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -2271,7 +2279,9 @@
       <c r="E7" s="7">
         <v>0.875</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7">
+        <v>0.813953488372093</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2293,7 +2303,9 @@
       <c r="E8" s="7">
         <v>0.8375</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7">
+        <v>0.86046511627907</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2315,7 +2327,9 @@
       <c r="E9" s="7">
         <v>0.95</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2337,7 +2351,9 @@
       <c r="E10" s="7">
         <v>0.9125</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2359,7 +2375,7 @@
       <c r="E11" s="7">
         <v>0.901639344262295</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2381,7 +2397,7 @@
       <c r="E12" s="7">
         <v>0</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -2403,7 +2419,7 @@
       <c r="E13" s="7">
         <v>0.770491803278689</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -2425,7 +2441,9 @@
       <c r="E14" s="7">
         <v>0.9125</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7">
+        <v>0.72093023255814</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -2447,7 +2465,9 @@
       <c r="E15" s="7">
         <v>0.8375</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7">
+        <v>0.7906976744186049</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -2461,15 +2481,17 @@
         <v>41</v>
       </c>
       <c r="C16" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>0.852459016393443</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -2483,15 +2505,15 @@
         <v>43</v>
       </c>
       <c r="C17" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>0.8375</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>0.852459016393443</v>
+      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -2505,15 +2527,17 @@
         <v>45</v>
       </c>
       <c r="C18" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>0.704918032786885</v>
-      </c>
-      <c r="F18" s="8"/>
+        <v>0.8375</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.86046511627907</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -2530,12 +2554,12 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="E19" s="7">
-        <v>0.8032786885245899</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>0.704918032786885</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2555,9 +2579,9 @@
         <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>0.8032786885245899</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2571,15 +2595,15 @@
         <v>51</v>
       </c>
       <c r="C21" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7">
-        <v>0.863636363636364</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>0.9125</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2593,15 +2617,17 @@
         <v>53</v>
       </c>
       <c r="C22" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>0.833333333333333</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>0.9125</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.837209302325581</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -2615,15 +2641,15 @@
         <v>55</v>
       </c>
       <c r="C23" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E23" s="7">
-        <v>0.8625</v>
-      </c>
-      <c r="F23" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2640,12 +2666,14 @@
         <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>0.9090909090909089</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>0.8625</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.651162790697674</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2659,15 +2687,17 @@
         <v>59</v>
       </c>
       <c r="C25" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>0.833333333333333</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="E25" s="7">
-        <v>0.852459016393443</v>
-      </c>
-      <c r="F25" s="8"/>
+        <v>0.95</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -2681,15 +2711,15 @@
         <v>61</v>
       </c>
       <c r="C26" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7">
-        <v>0.863636363636364</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E26" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="F26" s="8"/>
+        <v>0.852459016393443</v>
+      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2706,12 +2736,14 @@
         <v>17</v>
       </c>
       <c r="D27" s="7">
-        <v>0.9090909090909089</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E27" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.674418604651163</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -2725,15 +2757,17 @@
         <v>65</v>
       </c>
       <c r="C28" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" s="7">
-        <v>0.777777777777778</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="E28" s="7">
-        <v>0.639344262295082</v>
-      </c>
-      <c r="F28" s="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -2750,12 +2784,12 @@
         <v>12</v>
       </c>
       <c r="D29" s="7">
-        <v>0.555555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="E29" s="7">
-        <v>0.8032786885245899</v>
-      </c>
-      <c r="F29" s="8"/>
+        <v>0.639344262295082</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -2772,12 +2806,12 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>0.833333333333333</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8"/>
+        <v>0.8032786885245899</v>
+      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -2791,15 +2825,15 @@
         <v>71</v>
       </c>
       <c r="C31" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D31" s="7">
-        <v>0.954545454545455</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E31" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="F31" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -2813,15 +2847,17 @@
         <v>73</v>
       </c>
       <c r="C32" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D32" s="7">
-        <v>0.555555555555556</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="E32" s="7">
-        <v>0.672131147540984</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>0.95</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.72093023255814</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -2835,15 +2871,15 @@
         <v>75</v>
       </c>
       <c r="C33" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D33" s="7">
-        <v>0.9090909090909089</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E33" s="7">
-        <v>0.8375</v>
-      </c>
-      <c r="F33" s="8"/>
+        <v>0.672131147540984</v>
+      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -2857,15 +2893,17 @@
         <v>77</v>
       </c>
       <c r="C34" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D34" s="7">
-        <v>0.555555555555556</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="E34" s="7">
-        <v>0.8032786885245899</v>
-      </c>
-      <c r="F34" s="8"/>
+        <v>0.8375</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -2879,15 +2917,15 @@
         <v>79</v>
       </c>
       <c r="C35" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E35" s="7">
-        <v>0.8375</v>
-      </c>
-      <c r="F35" s="8"/>
+        <v>0.8032786885245899</v>
+      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2901,15 +2939,17 @@
         <v>81</v>
       </c>
       <c r="C36" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D36" s="7">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8"/>
+        <v>0.8375</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -2923,15 +2963,15 @@
         <v>83</v>
       </c>
       <c r="C37" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D37" s="7">
-        <v>0.863636363636364</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E37" s="7">
-        <v>0.9125</v>
-      </c>
-      <c r="F37" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -2945,15 +2985,17 @@
         <v>85</v>
       </c>
       <c r="C38" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D38" s="7">
-        <v>0.833333333333333</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E38" s="7">
-        <v>0.688524590163934</v>
-      </c>
-      <c r="F38" s="8"/>
+        <v>0.9125</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -2970,12 +3012,12 @@
         <v>12</v>
       </c>
       <c r="D39" s="7">
-        <v>0.777777777777778</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E39" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F39" s="8"/>
+        <v>0.688524590163934</v>
+      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -2992,12 +3034,12 @@
         <v>12</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="E40" s="7">
-        <v>0.557377049180328</v>
-      </c>
-      <c r="F40" s="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -3011,15 +3053,15 @@
         <v>91</v>
       </c>
       <c r="C41" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D41" s="7">
-        <v>0.9090909090909089</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7">
-        <v>0.9125</v>
-      </c>
-      <c r="F41" s="8"/>
+        <v>0.557377049180328</v>
+      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -3036,12 +3078,14 @@
         <v>17</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="E42" s="7">
-        <v>0.8375</v>
-      </c>
-      <c r="F42" s="8"/>
+        <v>0.9125</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -3055,15 +3099,17 @@
         <v>95</v>
       </c>
       <c r="C43" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D43" s="7">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7">
-        <v>0.754098360655738</v>
-      </c>
-      <c r="F43" s="8"/>
+        <v>0.8375</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.72093023255814</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -3077,15 +3123,15 @@
         <v>97</v>
       </c>
       <c r="C44" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E44" s="7">
-        <v>0.9125</v>
-      </c>
-      <c r="F44" s="8"/>
+        <v>0.754098360655738</v>
+      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -3102,12 +3148,14 @@
         <v>17</v>
       </c>
       <c r="D45" s="7">
-        <v>0.863636363636364</v>
+        <v>0</v>
       </c>
       <c r="E45" s="7">
         <v>0.9125</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -3121,15 +3169,17 @@
         <v>101</v>
       </c>
       <c r="C46" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E46" s="7">
-        <v>0</v>
-      </c>
-      <c r="F46" s="8"/>
+        <v>0.9125</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.86046511627907</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -3146,12 +3196,12 @@
         <v>12</v>
       </c>
       <c r="D47" s="7">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7">
-        <v>0.8032786885245899</v>
-      </c>
-      <c r="F47" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -3168,12 +3218,12 @@
         <v>12</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E48" s="7">
-        <v>0.540983606557377</v>
-      </c>
-      <c r="F48" s="8"/>
+        <v>0.8032786885245899</v>
+      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -3187,15 +3237,15 @@
         <v>107</v>
       </c>
       <c r="C49" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D49" s="7">
-        <v>0.954545454545455</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8"/>
+        <v>0.540983606557377</v>
+      </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -3212,12 +3262,14 @@
         <v>17</v>
       </c>
       <c r="D50" s="7">
-        <v>0.863636363636364</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="E50" s="7">
         <v>0</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="7">
+        <v>0.86046511627907</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -3234,12 +3286,14 @@
         <v>17</v>
       </c>
       <c r="D51" s="7">
-        <v>0</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E51" s="7">
-        <v>0.9125</v>
-      </c>
-      <c r="F51" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -3253,15 +3307,17 @@
         <v>113</v>
       </c>
       <c r="C52" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D52" s="7">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E52" s="7">
-        <v>0.8032786885245899</v>
-      </c>
-      <c r="F52" s="8"/>
+        <v>0.9125</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -3283,7 +3339,7 @@
       <c r="E53" s="7">
         <v>0.8032786885245899</v>
       </c>
-      <c r="F53" s="8"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -3297,15 +3353,15 @@
         <v>117</v>
       </c>
       <c r="C54" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D54" s="7">
-        <v>0.954545454545455</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E54" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="F54" s="8"/>
+        <v>0.8032786885245899</v>
+      </c>
+      <c r="F54" s="7"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -3322,12 +3378,14 @@
         <v>17</v>
       </c>
       <c r="D55" s="7">
-        <v>0.863636363636364</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="E55" s="7">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8"/>
+        <v>0.875</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.72093023255814</v>
+      </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -3341,15 +3399,17 @@
         <v>121</v>
       </c>
       <c r="C56" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E56" s="7">
-        <v>0.786885245901639</v>
-      </c>
-      <c r="F56" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.837209302325581</v>
+      </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -3363,15 +3423,15 @@
         <v>123</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D57" s="7">
         <v>0</v>
       </c>
       <c r="E57" s="7">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8"/>
+        <v>0.786885245901639</v>
+      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -3385,15 +3445,17 @@
         <v>125</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D58" s="7">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="E58" s="7">
-        <v>0.852459016393443</v>
-      </c>
-      <c r="F58" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -3407,15 +3469,15 @@
         <v>127</v>
       </c>
       <c r="C59" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="E59" s="7">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8"/>
+        <v>0.852459016393443</v>
+      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -3437,7 +3499,9 @@
       <c r="E60" s="7">
         <v>0</v>
       </c>
-      <c r="F60" s="8"/>
+      <c r="F60" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -3451,15 +3515,17 @@
         <v>131</v>
       </c>
       <c r="C61" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D61" s="7">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7">
-        <v>0.852459016393443</v>
-      </c>
-      <c r="F61" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.837209302325581</v>
+      </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -3473,15 +3539,15 @@
         <v>133</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D62" s="7">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E62" s="7">
-        <v>0.8375</v>
-      </c>
-      <c r="F62" s="8"/>
+        <v>0.852459016393443</v>
+      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -3498,12 +3564,14 @@
         <v>17</v>
       </c>
       <c r="D63" s="7">
-        <v>0.863636363636364</v>
+        <v>0</v>
       </c>
       <c r="E63" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F63" s="8"/>
+        <v>0.8375</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -3523,9 +3591,11 @@
         <v>0.863636363636364</v>
       </c>
       <c r="E64" s="7">
-        <v>0.9125</v>
-      </c>
-      <c r="F64" s="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.72093023255814</v>
+      </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -3542,12 +3612,14 @@
         <v>17</v>
       </c>
       <c r="D65" s="7">
-        <v>0</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E65" s="7">
-        <v>0.8375</v>
-      </c>
-      <c r="F65" s="8"/>
+        <v>0.9125</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -3561,15 +3633,17 @@
         <v>141</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D66" s="7">
         <v>0</v>
       </c>
       <c r="E66" s="7">
-        <v>0.688524590163934</v>
-      </c>
-      <c r="F66" s="8"/>
+        <v>0.8375</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -3583,15 +3657,15 @@
         <v>143</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D67" s="7">
         <v>0</v>
       </c>
       <c r="E67" s="7">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8"/>
+        <v>0.688524590163934</v>
+      </c>
+      <c r="F67" s="7"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -3608,12 +3682,14 @@
         <v>17</v>
       </c>
       <c r="D68" s="7">
-        <v>0.954545454545455</v>
+        <v>0</v>
       </c>
       <c r="E68" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="F68" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.697674418604651</v>
+      </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -3627,19 +3703,43 @@
         <v>147</v>
       </c>
       <c r="C69" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D69" s="7">
-        <v>0.777777777777778</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="E69" s="7">
-        <v>0.754098360655738</v>
-      </c>
-      <c r="F69" s="8"/>
+        <v>0.875</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.72093023255814</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
+    </row>
+    <row r="70" ht="14.35" customHeight="1">
+      <c r="A70" t="s" s="6">
+        <v>148</v>
+      </c>
+      <c r="B70" t="s" s="6">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0.754098360655738</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3656,48 +3756,48 @@
     <hyperlink ref="B13" r:id="rId11" location="" tooltip="" display="h210492w@hit.ac.zw"/>
     <hyperlink ref="B14" r:id="rId12" location="" tooltip="" display="h210283j@hit.ac.zw"/>
     <hyperlink ref="B15" r:id="rId13" location="" tooltip="" display="h210032p@hit.ac.zw"/>
-    <hyperlink ref="B16" r:id="rId14" location="" tooltip="" display="h210532g@hit.ac.zw"/>
-    <hyperlink ref="B17" r:id="rId15" location="" tooltip="" display="h210140r@hit.ac.zw"/>
-    <hyperlink ref="B18" r:id="rId16" location="" tooltip="" display="h210617v@hit.ac.zw"/>
-    <hyperlink ref="B20" r:id="rId17" location="" tooltip="" display="h150346e@hit.ac.zw"/>
-    <hyperlink ref="B21" r:id="rId18" location="" tooltip="" display="h210063c@hit.ac.zw"/>
-    <hyperlink ref="B23" r:id="rId19" location="" tooltip="" display="h210193v@hit.ac.zw"/>
-    <hyperlink ref="B24" r:id="rId20" location="" tooltip="" display="h210143q@hit.ac.zw"/>
-    <hyperlink ref="B25" r:id="rId21" location="" tooltip="" display="h210054b@hit.ac.zw"/>
-    <hyperlink ref="B26" r:id="rId22" location="" tooltip="" display="h210309h@hit.ac.zw"/>
-    <hyperlink ref="B27" r:id="rId23" location="" tooltip="" display="h210445w@hit.ac.zw"/>
-    <hyperlink ref="B29" r:id="rId24" location="" tooltip="" display="h210403q@hit.ac.zw"/>
-    <hyperlink ref="B31" r:id="rId25" location="" tooltip="" display="h210498n@hit.ac.zw"/>
-    <hyperlink ref="B32" r:id="rId26" location="" tooltip="" display="h210572q@hit.ac.zw"/>
-    <hyperlink ref="B35" r:id="rId27" location="" tooltip="" display="h210591h@hit.ac.zw"/>
-    <hyperlink ref="B36" r:id="rId28" location="" tooltip="" display="h210649a@hit.ac.zw"/>
-    <hyperlink ref="B37" r:id="rId29" location="" tooltip="" display="h210093z@hit.ac.zw"/>
-    <hyperlink ref="B39" r:id="rId30" location="" tooltip="" display="h180278g@hit.ac.zw"/>
-    <hyperlink ref="B40" r:id="rId31" location="" tooltip="" display="h210688r@hit.ac.zw"/>
-    <hyperlink ref="B42" r:id="rId32" location="" tooltip="" display="h210545y@hit.ac.zw"/>
-    <hyperlink ref="B44" r:id="rId33" location="" tooltip="" display="h210081t@hit.ac.zw"/>
-    <hyperlink ref="B45" r:id="rId34" location="" tooltip="" display="h210100j@hit.ac.zw"/>
-    <hyperlink ref="B46" r:id="rId35" location="" tooltip="" display="h210594p@hit.ac.zw"/>
-    <hyperlink ref="B47" r:id="rId36" location="" tooltip="" display="h210087z@hit.ac.zw"/>
-    <hyperlink ref="B48" r:id="rId37" location="" tooltip="" display="h210145z@hit.ac.zw"/>
-    <hyperlink ref="B49" r:id="rId38" location="" tooltip="" display="h210392t@hit.ac.zw"/>
-    <hyperlink ref="B50" r:id="rId39" location="" tooltip="" display="h210522f@hit.ac.zw"/>
-    <hyperlink ref="B51" r:id="rId40" location="" tooltip="" display="h210216r@hit.ac.zw"/>
-    <hyperlink ref="B52" r:id="rId41" location="" tooltip="" display="h210358c@hit.ac.zw"/>
-    <hyperlink ref="B53" r:id="rId42" location="" tooltip="" display="h210171v@hit.ac.zw"/>
-    <hyperlink ref="B55" r:id="rId43" location="" tooltip="" display="h210655v@hit.ac.zw"/>
-    <hyperlink ref="B56" r:id="rId44" location="" tooltip="" display="h210547a@hit.ac.zw"/>
-    <hyperlink ref="B57" r:id="rId45" location="" tooltip="" display="h190270p@hit.ac.zw"/>
-    <hyperlink ref="B58" r:id="rId46" location="" tooltip="" display="h210426b@hit.ac.zw"/>
-    <hyperlink ref="B59" r:id="rId47" location="" tooltip="" display="h210510b@hit.ac.zw"/>
-    <hyperlink ref="B60" r:id="rId48" location="" tooltip="" display="h210647b@hit.ac.zw"/>
-    <hyperlink ref="B61" r:id="rId49" location="" tooltip="" display="h210679m@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId50" location="" tooltip="" display="h210526f@hit.ac.zw"/>
-    <hyperlink ref="B63" r:id="rId51" location="" tooltip="" display="h210404p@hit.ac.zw"/>
-    <hyperlink ref="B64" r:id="rId52" location="" tooltip="" display="h210607w@hit.ac.zw"/>
-    <hyperlink ref="B65" r:id="rId53" location="" tooltip="" display="h210077g@hit.ac.zw"/>
-    <hyperlink ref="B67" r:id="rId54" location="" tooltip="" display="h210514q@hit.ac.zw"/>
-    <hyperlink ref="B68" r:id="rId55" location="" tooltip="" display="h210041e@hit.ac.zw"/>
+    <hyperlink ref="B17" r:id="rId14" location="" tooltip="" display="h210532g@hit.ac.zw"/>
+    <hyperlink ref="B18" r:id="rId15" location="" tooltip="" display="h210140r@hit.ac.zw"/>
+    <hyperlink ref="B19" r:id="rId16" location="" tooltip="" display="h210617v@hit.ac.zw"/>
+    <hyperlink ref="B21" r:id="rId17" location="" tooltip="" display="h150346e@hit.ac.zw"/>
+    <hyperlink ref="B22" r:id="rId18" location="" tooltip="" display="h210063c@hit.ac.zw"/>
+    <hyperlink ref="B24" r:id="rId19" location="" tooltip="" display="h210193v@hit.ac.zw"/>
+    <hyperlink ref="B25" r:id="rId20" location="" tooltip="" display="h210143q@hit.ac.zw"/>
+    <hyperlink ref="B26" r:id="rId21" location="" tooltip="" display="h210054b@hit.ac.zw"/>
+    <hyperlink ref="B27" r:id="rId22" location="" tooltip="" display="h210309h@hit.ac.zw"/>
+    <hyperlink ref="B28" r:id="rId23" location="" tooltip="" display="h210445w@hit.ac.zw"/>
+    <hyperlink ref="B30" r:id="rId24" location="" tooltip="" display="h210403q@hit.ac.zw"/>
+    <hyperlink ref="B32" r:id="rId25" location="" tooltip="" display="h210498n@hit.ac.zw"/>
+    <hyperlink ref="B33" r:id="rId26" location="" tooltip="" display="h210572q@hit.ac.zw"/>
+    <hyperlink ref="B36" r:id="rId27" location="" tooltip="" display="h210591h@hit.ac.zw"/>
+    <hyperlink ref="B37" r:id="rId28" location="" tooltip="" display="h210649a@hit.ac.zw"/>
+    <hyperlink ref="B38" r:id="rId29" location="" tooltip="" display="h210093z@hit.ac.zw"/>
+    <hyperlink ref="B40" r:id="rId30" location="" tooltip="" display="h180278g@hit.ac.zw"/>
+    <hyperlink ref="B41" r:id="rId31" location="" tooltip="" display="h210688r@hit.ac.zw"/>
+    <hyperlink ref="B43" r:id="rId32" location="" tooltip="" display="h210545y@hit.ac.zw"/>
+    <hyperlink ref="B45" r:id="rId33" location="" tooltip="" display="h210081t@hit.ac.zw"/>
+    <hyperlink ref="B46" r:id="rId34" location="" tooltip="" display="h210100j@hit.ac.zw"/>
+    <hyperlink ref="B47" r:id="rId35" location="" tooltip="" display="h210594p@hit.ac.zw"/>
+    <hyperlink ref="B48" r:id="rId36" location="" tooltip="" display="h210087z@hit.ac.zw"/>
+    <hyperlink ref="B49" r:id="rId37" location="" tooltip="" display="h210145z@hit.ac.zw"/>
+    <hyperlink ref="B50" r:id="rId38" location="" tooltip="" display="h210392t@hit.ac.zw"/>
+    <hyperlink ref="B51" r:id="rId39" location="" tooltip="" display="h210522f@hit.ac.zw"/>
+    <hyperlink ref="B52" r:id="rId40" location="" tooltip="" display="h210216r@hit.ac.zw"/>
+    <hyperlink ref="B53" r:id="rId41" location="" tooltip="" display="h210358c@hit.ac.zw"/>
+    <hyperlink ref="B54" r:id="rId42" location="" tooltip="" display="h210171v@hit.ac.zw"/>
+    <hyperlink ref="B56" r:id="rId43" location="" tooltip="" display="h210655v@hit.ac.zw"/>
+    <hyperlink ref="B57" r:id="rId44" location="" tooltip="" display="h210547a@hit.ac.zw"/>
+    <hyperlink ref="B58" r:id="rId45" location="" tooltip="" display="h190270p@hit.ac.zw"/>
+    <hyperlink ref="B59" r:id="rId46" location="" tooltip="" display="h210426b@hit.ac.zw"/>
+    <hyperlink ref="B60" r:id="rId47" location="" tooltip="" display="h210510b@hit.ac.zw"/>
+    <hyperlink ref="B61" r:id="rId48" location="" tooltip="" display="h210647b@hit.ac.zw"/>
+    <hyperlink ref="B62" r:id="rId49" location="" tooltip="" display="h210679m@hit.ac.zw"/>
+    <hyperlink ref="B63" r:id="rId50" location="" tooltip="" display="h210526f@hit.ac.zw"/>
+    <hyperlink ref="B64" r:id="rId51" location="" tooltip="" display="h210404p@hit.ac.zw"/>
+    <hyperlink ref="B65" r:id="rId52" location="" tooltip="" display="h210607w@hit.ac.zw"/>
+    <hyperlink ref="B66" r:id="rId53" location="" tooltip="" display="h210077g@hit.ac.zw"/>
+    <hyperlink ref="B68" r:id="rId54" location="" tooltip="" display="h210514q@hit.ac.zw"/>
+    <hyperlink ref="B69" r:id="rId55" location="" tooltip="" display="h210041e@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>Surname</t>
   </si>
@@ -291,6 +291,15 @@
     <t>H210245E</t>
   </si>
   <si>
+    <t>Dzenga</t>
+  </si>
+  <si>
+    <t>H190521X</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
     <t>Jarai</t>
   </si>
   <si>
@@ -503,178 +512,178 @@
     </r>
   </si>
   <si>
-    <t>Matyamaenza</t>
+    <t>Mawema</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h180278g@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Mpofu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h210688r@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Mudonhi</t>
+  </si>
+  <si>
+    <t>H210708T</t>
+  </si>
+  <si>
+    <t>Mudoti</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h210545y@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Mugura</t>
+  </si>
+  <si>
+    <t>H210533T</t>
+  </si>
+  <si>
+    <t>Mukandambi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h210081t@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Munhundarima</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h210100j@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Mupandawana</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h210594p@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Muparaganda</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h210087z@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Mupemhi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h210145z@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Mushonga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h210392t@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Mutasa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h210522f@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Mutopo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>h210216r@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <t>Mutyamaenza</t>
   </si>
   <si>
     <t>H210096C</t>
   </si>
   <si>
-    <t>Mawema</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h180278g@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
-    <t>Mpofu</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h210688r@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
-    <t>Mudonhi</t>
-  </si>
-  <si>
-    <t>H210708T</t>
-  </si>
-  <si>
-    <t>Mudoti</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h210545y@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
-    <t>Mugura</t>
-  </si>
-  <si>
-    <t>H210533T</t>
-  </si>
-  <si>
-    <t>Mukandambi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h210081t@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
-    <t>Munhundarima</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h210100j@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
-    <t>Mupandawana</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h210594p@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
-    <t>Muparaganda</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h210087z@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
-    <t>Mupemhi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h210145z@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
-    <t>Mushonga</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h210392t@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
-    <t>Mutasa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h210522f@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
-    <t>Mutopo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h210216r@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
     <t>Muvirimi</t>
   </si>
   <si>
@@ -777,6 +786,15 @@
       </rPr>
       <t>h210510b@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Saunyama</t>
+  </si>
+  <si>
+    <t>H190782H</t>
+  </si>
+  <si>
+    <t>ICS</t>
   </si>
   <si>
     <t>Savanhu</t>
@@ -2105,7 +2123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -2167,7 +2185,9 @@
       <c r="E2" s="4">
         <v>0.901639344262295</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2189,7 +2209,9 @@
       <c r="E3" s="7">
         <v>0.901639344262295</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>0.6279069767441861</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -2235,7 +2257,9 @@
       <c r="E5" s="7">
         <v>0.754098360655738</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>0.27906976744186</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2257,7 +2281,9 @@
       <c r="E6" s="7">
         <v>0.557377049180328</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>0.674418604651163</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -2375,7 +2401,9 @@
       <c r="E11" s="7">
         <v>0.901639344262295</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2397,7 +2425,9 @@
       <c r="E12" s="7">
         <v>0</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0.72093023255814</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -2419,7 +2449,9 @@
       <c r="E13" s="7">
         <v>0.770491803278689</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -2513,7 +2545,9 @@
       <c r="E17" s="7">
         <v>0.852459016393443</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -2559,7 +2593,9 @@
       <c r="E19" s="7">
         <v>0.704918032786885</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>0.488372093023256</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2581,7 +2617,9 @@
       <c r="E20" s="7">
         <v>0.8032786885245899</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>0.348837209302326</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2595,7 +2633,7 @@
         <v>51</v>
       </c>
       <c r="C21" t="s" s="6">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -2603,7 +2641,9 @@
       <c r="E21" s="7">
         <v>0</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>0.534883720930233</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2611,22 +2651,22 @@
     </row>
     <row r="22" ht="14.35" customHeight="1">
       <c r="A22" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>0.863636363636364</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7">
-        <v>0.9125</v>
+        <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>0.837209302325581</v>
+        <v>0</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2635,21 +2675,23 @@
     </row>
     <row r="23" ht="14.35" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s" s="6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>0.833333333333333</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>0.9125</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.837209302325581</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2657,22 +2699,22 @@
     </row>
     <row r="24" ht="14.35" customHeight="1">
       <c r="A24" t="s" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E24" s="7">
-        <v>0.8625</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>0.651162790697674</v>
+        <v>0.930232558139535</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2681,22 +2723,22 @@
     </row>
     <row r="25" ht="14.35" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s" s="6">
         <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>0.9090909090909089</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7">
-        <v>0.95</v>
+        <v>0.8625</v>
       </c>
       <c r="F25" s="7">
-        <v>0</v>
+        <v>0.651162790697674</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2705,21 +2747,23 @@
     </row>
     <row r="26" ht="14.35" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="7">
-        <v>0.833333333333333</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="E26" s="7">
-        <v>0.852459016393443</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2727,22 +2771,22 @@
     </row>
     <row r="27" ht="14.35" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D27" s="7">
-        <v>0.863636363636364</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E27" s="7">
-        <v>0.85</v>
+        <v>0.852459016393443</v>
       </c>
       <c r="F27" s="7">
-        <v>0.674418604651163</v>
+        <v>0.27906976744186</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2751,22 +2795,22 @@
     </row>
     <row r="28" ht="14.35" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s" s="6">
         <v>17</v>
       </c>
       <c r="D28" s="7">
-        <v>0.9090909090909089</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E28" s="7">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F28" s="7">
-        <v>0.767441860465116</v>
+        <v>0.674418604651163</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -2775,21 +2819,23 @@
     </row>
     <row r="29" ht="14.35" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7">
-        <v>0.777777777777778</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="E29" s="7">
-        <v>0.639344262295082</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -2797,21 +2843,23 @@
     </row>
     <row r="30" ht="14.35" customHeight="1">
       <c r="A30" t="s" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s" s="6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s" s="6">
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>0.555555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="E30" s="7">
-        <v>0.8032786885245899</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>0.639344262295082</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -2819,21 +2867,23 @@
     </row>
     <row r="31" ht="14.35" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>12</v>
       </c>
       <c r="D31" s="7">
-        <v>0.833333333333333</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7"/>
+        <v>0.8032786885245899</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -2841,22 +2891,22 @@
     </row>
     <row r="32" ht="14.35" customHeight="1">
       <c r="A32" t="s" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>0.954545454545455</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E32" s="7">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>0.72093023255814</v>
+        <v>1</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -2865,21 +2915,23 @@
     </row>
     <row r="33" ht="14.35" customHeight="1">
       <c r="A33" t="s" s="6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D33" s="7">
-        <v>0.555555555555556</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="E33" s="7">
-        <v>0.672131147540984</v>
-      </c>
-      <c r="F33" s="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.72093023255814</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -2887,22 +2939,22 @@
     </row>
     <row r="34" ht="14.35" customHeight="1">
       <c r="A34" t="s" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7">
-        <v>0.9090909090909089</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E34" s="7">
-        <v>0.8375</v>
+        <v>0.672131147540984</v>
       </c>
       <c r="F34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2911,21 +2963,23 @@
     </row>
     <row r="35" ht="14.35" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D35" s="7">
-        <v>0.555555555555556</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="E35" s="7">
-        <v>0.8032786885245899</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>0.8375</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2933,22 +2987,22 @@
     </row>
     <row r="36" ht="14.35" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s" s="6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E36" s="7">
-        <v>0.8375</v>
+        <v>0.8032786885245899</v>
       </c>
       <c r="F36" s="7">
-        <v>0.767441860465116</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2957,21 +3011,23 @@
     </row>
     <row r="37" ht="14.35" customHeight="1">
       <c r="A37" t="s" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D37" s="7">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>0.8375</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -2979,22 +3035,22 @@
     </row>
     <row r="38" ht="14.35" customHeight="1">
       <c r="A38" t="s" s="6">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D38" s="7">
-        <v>0.863636363636364</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E38" s="7">
-        <v>0.9125</v>
+        <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>0.767441860465116</v>
+        <v>1</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -3003,21 +3059,23 @@
     </row>
     <row r="39" ht="14.35" customHeight="1">
       <c r="A39" t="s" s="6">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D39" s="7">
-        <v>0.833333333333333</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E39" s="7">
-        <v>0.688524590163934</v>
-      </c>
-      <c r="F39" s="7"/>
+        <v>0.9125</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -3025,10 +3083,10 @@
     </row>
     <row r="40" ht="14.35" customHeight="1">
       <c r="A40" t="s" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s" s="6">
         <v>12</v>
@@ -3039,7 +3097,9 @@
       <c r="E40" s="7">
         <v>0.8</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7">
+        <v>0.534883720930233</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -3047,10 +3107,10 @@
     </row>
     <row r="41" ht="14.35" customHeight="1">
       <c r="A41" t="s" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>12</v>
@@ -3061,7 +3121,9 @@
       <c r="E41" s="7">
         <v>0.557377049180328</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7">
+        <v>0.930232558139535</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -3069,10 +3131,10 @@
     </row>
     <row r="42" ht="14.35" customHeight="1">
       <c r="A42" t="s" s="6">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>17</v>
@@ -3093,10 +3155,10 @@
     </row>
     <row r="43" ht="14.35" customHeight="1">
       <c r="A43" t="s" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s" s="6">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s" s="6">
         <v>17</v>
@@ -3117,10 +3179,10 @@
     </row>
     <row r="44" ht="14.35" customHeight="1">
       <c r="A44" t="s" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s" s="6">
         <v>12</v>
@@ -3131,7 +3193,9 @@
       <c r="E44" s="7">
         <v>0.754098360655738</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7">
+        <v>0.86046511627907</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -3139,10 +3203,10 @@
     </row>
     <row r="45" ht="14.35" customHeight="1">
       <c r="A45" t="s" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s" s="6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s" s="6">
         <v>17</v>
@@ -3163,10 +3227,10 @@
     </row>
     <row r="46" ht="14.35" customHeight="1">
       <c r="A46" t="s" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s" s="6">
         <v>17</v>
@@ -3187,10 +3251,10 @@
     </row>
     <row r="47" ht="14.35" customHeight="1">
       <c r="A47" t="s" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s" s="6">
         <v>12</v>
@@ -3201,7 +3265,9 @@
       <c r="E47" s="7">
         <v>0</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="7">
+        <v>0.27906976744186</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -3209,10 +3275,10 @@
     </row>
     <row r="48" ht="14.35" customHeight="1">
       <c r="A48" t="s" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s" s="6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s" s="6">
         <v>12</v>
@@ -3223,7 +3289,9 @@
       <c r="E48" s="7">
         <v>0.8032786885245899</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7">
+        <v>0.6279069767441861</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -3231,10 +3299,10 @@
     </row>
     <row r="49" ht="14.35" customHeight="1">
       <c r="A49" t="s" s="6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>12</v>
@@ -3245,7 +3313,9 @@
       <c r="E49" s="7">
         <v>0.540983606557377</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7">
+        <v>0.348837209302326</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -3253,10 +3323,10 @@
     </row>
     <row r="50" ht="14.35" customHeight="1">
       <c r="A50" t="s" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s" s="6">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s" s="6">
         <v>17</v>
@@ -3277,10 +3347,10 @@
     </row>
     <row r="51" ht="14.35" customHeight="1">
       <c r="A51" t="s" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s" s="6">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>17</v>
@@ -3301,10 +3371,10 @@
     </row>
     <row r="52" ht="14.35" customHeight="1">
       <c r="A52" t="s" s="6">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s" s="6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>17</v>
@@ -3325,10 +3395,10 @@
     </row>
     <row r="53" ht="14.35" customHeight="1">
       <c r="A53" t="s" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s" s="6">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s" s="6">
         <v>12</v>
@@ -3337,9 +3407,11 @@
         <v>0.833333333333333</v>
       </c>
       <c r="E53" s="7">
-        <v>0.8032786885245899</v>
-      </c>
-      <c r="F53" s="7"/>
+        <v>0.688524590163934</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.488372093023256</v>
+      </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -3347,10 +3419,10 @@
     </row>
     <row r="54" ht="14.35" customHeight="1">
       <c r="A54" t="s" s="6">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s" s="6">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s" s="6">
         <v>12</v>
@@ -3361,7 +3433,9 @@
       <c r="E54" s="7">
         <v>0.8032786885245899</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="7">
+        <v>0.72093023255814</v>
+      </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -3369,22 +3443,22 @@
     </row>
     <row r="55" ht="14.35" customHeight="1">
       <c r="A55" t="s" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s" s="6">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D55" s="7">
-        <v>0.954545454545455</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E55" s="7">
-        <v>0.875</v>
+        <v>0.8032786885245899</v>
       </c>
       <c r="F55" s="7">
-        <v>0.72093023255814</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -3393,22 +3467,22 @@
     </row>
     <row r="56" ht="14.35" customHeight="1">
       <c r="A56" t="s" s="6">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s" s="6">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>17</v>
       </c>
       <c r="D56" s="7">
-        <v>0.863636363636364</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="E56" s="7">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="F56" s="7">
-        <v>0.837209302325581</v>
+        <v>0.72093023255814</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -3417,21 +3491,23 @@
     </row>
     <row r="57" ht="14.35" customHeight="1">
       <c r="A57" t="s" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s" s="6">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E57" s="7">
-        <v>0.786885245901639</v>
-      </c>
-      <c r="F57" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.837209302325581</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -3439,22 +3515,22 @@
     </row>
     <row r="58" ht="14.35" customHeight="1">
       <c r="A58" t="s" s="6">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s" s="6">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
       </c>
       <c r="E58" s="7">
-        <v>0</v>
+        <v>0.786885245901639</v>
       </c>
       <c r="F58" s="7">
-        <v>0</v>
+        <v>0.674418604651163</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -3463,21 +3539,23 @@
     </row>
     <row r="59" ht="14.35" customHeight="1">
       <c r="A59" t="s" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s" s="6">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D59" s="7">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="E59" s="7">
-        <v>0.852459016393443</v>
-      </c>
-      <c r="F59" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -3485,22 +3563,22 @@
     </row>
     <row r="60" ht="14.35" customHeight="1">
       <c r="A60" t="s" s="6">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s" s="6">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="E60" s="7">
-        <v>0</v>
+        <v>0.852459016393443</v>
       </c>
       <c r="F60" s="7">
-        <v>0.767441860465116</v>
+        <v>1</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -3509,10 +3587,10 @@
     </row>
     <row r="61" ht="14.35" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>17</v>
@@ -3524,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <v>0.837209302325581</v>
+        <v>0.767441860465116</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -3533,21 +3611,23 @@
     </row>
     <row r="62" ht="14.35" customHeight="1">
       <c r="A62" t="s" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D62" s="7">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E62" s="7">
-        <v>0.852459016393443</v>
-      </c>
-      <c r="F62" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.348837209302326</v>
+      </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -3555,10 +3635,10 @@
     </row>
     <row r="63" ht="14.35" customHeight="1">
       <c r="A63" t="s" s="6">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s" s="6">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s" s="6">
         <v>17</v>
@@ -3567,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="E63" s="7">
-        <v>0.8375</v>
+        <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>0.767441860465116</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -3579,22 +3659,22 @@
     </row>
     <row r="64" ht="14.35" customHeight="1">
       <c r="A64" t="s" s="6">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s" s="6">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D64" s="7">
-        <v>0.863636363636364</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E64" s="7">
-        <v>0.8</v>
+        <v>0.852459016393443</v>
       </c>
       <c r="F64" s="7">
-        <v>0.72093023255814</v>
+        <v>1</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -3603,19 +3683,19 @@
     </row>
     <row r="65" ht="14.35" customHeight="1">
       <c r="A65" t="s" s="6">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s" s="6">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>17</v>
       </c>
       <c r="D65" s="7">
-        <v>0.863636363636364</v>
+        <v>0</v>
       </c>
       <c r="E65" s="7">
-        <v>0.9125</v>
+        <v>0.8375</v>
       </c>
       <c r="F65" s="7">
         <v>0.767441860465116</v>
@@ -3627,22 +3707,22 @@
     </row>
     <row r="66" ht="14.35" customHeight="1">
       <c r="A66" t="s" s="6">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s" s="6">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>17</v>
       </c>
       <c r="D66" s="7">
-        <v>0</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E66" s="7">
-        <v>0.8375</v>
+        <v>0.8</v>
       </c>
       <c r="F66" s="7">
-        <v>0.767441860465116</v>
+        <v>0.72093023255814</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -3651,21 +3731,23 @@
     </row>
     <row r="67" ht="14.35" customHeight="1">
       <c r="A67" t="s" s="6">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s" s="6">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D67" s="7">
-        <v>0</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="E67" s="7">
-        <v>0.688524590163934</v>
-      </c>
-      <c r="F67" s="7"/>
+        <v>0.9125</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.767441860465116</v>
+      </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -3673,10 +3755,10 @@
     </row>
     <row r="68" ht="14.35" customHeight="1">
       <c r="A68" t="s" s="6">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B68" t="s" s="6">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>17</v>
@@ -3685,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="E68" s="7">
-        <v>0</v>
+        <v>0.8375</v>
       </c>
       <c r="F68" s="7">
-        <v>0.697674418604651</v>
+        <v>0.767441860465116</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -3697,22 +3779,22 @@
     </row>
     <row r="69" ht="14.35" customHeight="1">
       <c r="A69" t="s" s="6">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s" s="6">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D69" s="7">
-        <v>0.954545454545455</v>
+        <v>0</v>
       </c>
       <c r="E69" s="7">
-        <v>0.875</v>
+        <v>0.688524590163934</v>
       </c>
       <c r="F69" s="7">
-        <v>0.72093023255814</v>
+        <v>0.86046511627907</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -3721,25 +3803,75 @@
     </row>
     <row r="70" ht="14.35" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s" s="6">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D70" s="7">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="E70" s="7">
-        <v>0.754098360655738</v>
-      </c>
-      <c r="F70" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0.697674418604651</v>
+      </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
+    </row>
+    <row r="71" ht="14.35" customHeight="1">
+      <c r="A71" t="s" s="6">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s" s="6">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.954545454545455</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0.72093023255814</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" ht="14.35" customHeight="1">
+      <c r="A72" t="s" s="6">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s" s="6">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.754098360655738</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0.674418604651163</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3759,19 +3891,19 @@
     <hyperlink ref="B17" r:id="rId14" location="" tooltip="" display="h210532g@hit.ac.zw"/>
     <hyperlink ref="B18" r:id="rId15" location="" tooltip="" display="h210140r@hit.ac.zw"/>
     <hyperlink ref="B19" r:id="rId16" location="" tooltip="" display="h210617v@hit.ac.zw"/>
-    <hyperlink ref="B21" r:id="rId17" location="" tooltip="" display="h150346e@hit.ac.zw"/>
-    <hyperlink ref="B22" r:id="rId18" location="" tooltip="" display="h210063c@hit.ac.zw"/>
-    <hyperlink ref="B24" r:id="rId19" location="" tooltip="" display="h210193v@hit.ac.zw"/>
-    <hyperlink ref="B25" r:id="rId20" location="" tooltip="" display="h210143q@hit.ac.zw"/>
-    <hyperlink ref="B26" r:id="rId21" location="" tooltip="" display="h210054b@hit.ac.zw"/>
-    <hyperlink ref="B27" r:id="rId22" location="" tooltip="" display="h210309h@hit.ac.zw"/>
-    <hyperlink ref="B28" r:id="rId23" location="" tooltip="" display="h210445w@hit.ac.zw"/>
-    <hyperlink ref="B30" r:id="rId24" location="" tooltip="" display="h210403q@hit.ac.zw"/>
-    <hyperlink ref="B32" r:id="rId25" location="" tooltip="" display="h210498n@hit.ac.zw"/>
-    <hyperlink ref="B33" r:id="rId26" location="" tooltip="" display="h210572q@hit.ac.zw"/>
-    <hyperlink ref="B36" r:id="rId27" location="" tooltip="" display="h210591h@hit.ac.zw"/>
-    <hyperlink ref="B37" r:id="rId28" location="" tooltip="" display="h210649a@hit.ac.zw"/>
-    <hyperlink ref="B38" r:id="rId29" location="" tooltip="" display="h210093z@hit.ac.zw"/>
+    <hyperlink ref="B22" r:id="rId17" location="" tooltip="" display="h150346e@hit.ac.zw"/>
+    <hyperlink ref="B23" r:id="rId18" location="" tooltip="" display="h210063c@hit.ac.zw"/>
+    <hyperlink ref="B25" r:id="rId19" location="" tooltip="" display="h210193v@hit.ac.zw"/>
+    <hyperlink ref="B26" r:id="rId20" location="" tooltip="" display="h210143q@hit.ac.zw"/>
+    <hyperlink ref="B27" r:id="rId21" location="" tooltip="" display="h210054b@hit.ac.zw"/>
+    <hyperlink ref="B28" r:id="rId22" location="" tooltip="" display="h210309h@hit.ac.zw"/>
+    <hyperlink ref="B29" r:id="rId23" location="" tooltip="" display="h210445w@hit.ac.zw"/>
+    <hyperlink ref="B31" r:id="rId24" location="" tooltip="" display="h210403q@hit.ac.zw"/>
+    <hyperlink ref="B33" r:id="rId25" location="" tooltip="" display="h210498n@hit.ac.zw"/>
+    <hyperlink ref="B34" r:id="rId26" location="" tooltip="" display="h210572q@hit.ac.zw"/>
+    <hyperlink ref="B37" r:id="rId27" location="" tooltip="" display="h210591h@hit.ac.zw"/>
+    <hyperlink ref="B38" r:id="rId28" location="" tooltip="" display="h210649a@hit.ac.zw"/>
+    <hyperlink ref="B39" r:id="rId29" location="" tooltip="" display="h210093z@hit.ac.zw"/>
     <hyperlink ref="B40" r:id="rId30" location="" tooltip="" display="h180278g@hit.ac.zw"/>
     <hyperlink ref="B41" r:id="rId31" location="" tooltip="" display="h210688r@hit.ac.zw"/>
     <hyperlink ref="B43" r:id="rId32" location="" tooltip="" display="h210545y@hit.ac.zw"/>
@@ -3783,21 +3915,21 @@
     <hyperlink ref="B50" r:id="rId38" location="" tooltip="" display="h210392t@hit.ac.zw"/>
     <hyperlink ref="B51" r:id="rId39" location="" tooltip="" display="h210522f@hit.ac.zw"/>
     <hyperlink ref="B52" r:id="rId40" location="" tooltip="" display="h210216r@hit.ac.zw"/>
-    <hyperlink ref="B53" r:id="rId41" location="" tooltip="" display="h210358c@hit.ac.zw"/>
-    <hyperlink ref="B54" r:id="rId42" location="" tooltip="" display="h210171v@hit.ac.zw"/>
-    <hyperlink ref="B56" r:id="rId43" location="" tooltip="" display="h210655v@hit.ac.zw"/>
-    <hyperlink ref="B57" r:id="rId44" location="" tooltip="" display="h210547a@hit.ac.zw"/>
-    <hyperlink ref="B58" r:id="rId45" location="" tooltip="" display="h190270p@hit.ac.zw"/>
-    <hyperlink ref="B59" r:id="rId46" location="" tooltip="" display="h210426b@hit.ac.zw"/>
-    <hyperlink ref="B60" r:id="rId47" location="" tooltip="" display="h210510b@hit.ac.zw"/>
-    <hyperlink ref="B61" r:id="rId48" location="" tooltip="" display="h210647b@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId49" location="" tooltip="" display="h210679m@hit.ac.zw"/>
-    <hyperlink ref="B63" r:id="rId50" location="" tooltip="" display="h210526f@hit.ac.zw"/>
-    <hyperlink ref="B64" r:id="rId51" location="" tooltip="" display="h210404p@hit.ac.zw"/>
-    <hyperlink ref="B65" r:id="rId52" location="" tooltip="" display="h210607w@hit.ac.zw"/>
-    <hyperlink ref="B66" r:id="rId53" location="" tooltip="" display="h210077g@hit.ac.zw"/>
-    <hyperlink ref="B68" r:id="rId54" location="" tooltip="" display="h210514q@hit.ac.zw"/>
-    <hyperlink ref="B69" r:id="rId55" location="" tooltip="" display="h210041e@hit.ac.zw"/>
+    <hyperlink ref="B54" r:id="rId41" location="" tooltip="" display="h210358c@hit.ac.zw"/>
+    <hyperlink ref="B55" r:id="rId42" location="" tooltip="" display="h210171v@hit.ac.zw"/>
+    <hyperlink ref="B57" r:id="rId43" location="" tooltip="" display="h210655v@hit.ac.zw"/>
+    <hyperlink ref="B58" r:id="rId44" location="" tooltip="" display="h210547a@hit.ac.zw"/>
+    <hyperlink ref="B59" r:id="rId45" location="" tooltip="" display="h190270p@hit.ac.zw"/>
+    <hyperlink ref="B60" r:id="rId46" location="" tooltip="" display="h210426b@hit.ac.zw"/>
+    <hyperlink ref="B61" r:id="rId47" location="" tooltip="" display="h210510b@hit.ac.zw"/>
+    <hyperlink ref="B63" r:id="rId48" location="" tooltip="" display="h210647b@hit.ac.zw"/>
+    <hyperlink ref="B64" r:id="rId49" location="" tooltip="" display="h210679m@hit.ac.zw"/>
+    <hyperlink ref="B65" r:id="rId50" location="" tooltip="" display="h210526f@hit.ac.zw"/>
+    <hyperlink ref="B66" r:id="rId51" location="" tooltip="" display="h210404p@hit.ac.zw"/>
+    <hyperlink ref="B67" r:id="rId52" location="" tooltip="" display="h210607w@hit.ac.zw"/>
+    <hyperlink ref="B68" r:id="rId53" location="" tooltip="" display="h210077g@hit.ac.zw"/>
+    <hyperlink ref="B70" r:id="rId54" location="" tooltip="" display="h210514q@hit.ac.zw"/>
+    <hyperlink ref="B71" r:id="rId55" location="" tooltip="" display="h210041e@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2188,7 +2188,9 @@
       <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -2212,7 +2214,9 @@
       <c r="F3" s="7">
         <v>0.6279069767441861</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7">
+        <v>0.694444444444444</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2236,7 +2240,9 @@
       <c r="F4" s="7">
         <v>0.674418604651163</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -2260,7 +2266,9 @@
       <c r="F5" s="7">
         <v>0.27906976744186</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2284,7 +2292,9 @@
       <c r="F6" s="7">
         <v>0.674418604651163</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -2308,7 +2318,9 @@
       <c r="F7" s="7">
         <v>0.813953488372093</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -2332,7 +2344,9 @@
       <c r="F8" s="7">
         <v>0.86046511627907</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2356,7 +2370,9 @@
       <c r="F9" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2380,7 +2396,9 @@
       <c r="F10" s="7">
         <v>0</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -2404,7 +2422,9 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2428,7 +2448,9 @@
       <c r="F12" s="7">
         <v>0.72093023255814</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2452,7 +2474,9 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -2476,7 +2500,9 @@
       <c r="F14" s="7">
         <v>0.72093023255814</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -2500,7 +2526,9 @@
       <c r="F15" s="7">
         <v>0.7906976744186049</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -2524,7 +2552,9 @@
       <c r="F16" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -2548,7 +2578,9 @@
       <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -2572,7 +2604,9 @@
       <c r="F18" s="7">
         <v>0.86046511627907</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -2596,7 +2630,9 @@
       <c r="F19" s="7">
         <v>0.488372093023256</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="7">
+        <v>0.805555555555556</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -2620,7 +2656,9 @@
       <c r="F20" s="7">
         <v>0.348837209302326</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -2644,7 +2682,9 @@
       <c r="F21" s="7">
         <v>0.534883720930233</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -2668,7 +2708,9 @@
       <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -2692,7 +2734,9 @@
       <c r="F23" s="7">
         <v>0.837209302325581</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2716,7 +2760,9 @@
       <c r="F24" s="7">
         <v>0.930232558139535</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -2740,7 +2786,9 @@
       <c r="F25" s="7">
         <v>0.651162790697674</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2764,7 +2812,9 @@
       <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2788,7 +2838,9 @@
       <c r="F27" s="7">
         <v>0.27906976744186</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="7">
+        <v>0.694444444444444</v>
+      </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2812,7 +2864,9 @@
       <c r="F28" s="7">
         <v>0.674418604651163</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="G28" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -2836,7 +2890,9 @@
       <c r="F29" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -2860,7 +2916,9 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="7">
+        <v>0.805555555555556</v>
+      </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -2884,7 +2942,9 @@
       <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="7">
+        <v>0.694444444444444</v>
+      </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -2908,7 +2968,9 @@
       <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="7">
+        <v>0.694444444444444</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2932,7 +2994,9 @@
       <c r="F33" s="7">
         <v>0.72093023255814</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -2956,7 +3020,9 @@
       <c r="F34" s="7">
         <v>1</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="7">
+        <v>0.694444444444444</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -2980,7 +3046,9 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -3004,7 +3072,9 @@
       <c r="F36" s="7">
         <v>0.813953488372093</v>
       </c>
-      <c r="G36" s="8"/>
+      <c r="G36" s="7">
+        <v>0.694444444444444</v>
+      </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -3028,7 +3098,9 @@
       <c r="F37" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -3052,7 +3124,9 @@
       <c r="F38" s="7">
         <v>1</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -3076,7 +3150,9 @@
       <c r="F39" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -3100,7 +3176,9 @@
       <c r="F40" s="7">
         <v>0.534883720930233</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="G40" s="7">
+        <v>0.805555555555556</v>
+      </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -3124,7 +3202,9 @@
       <c r="F41" s="7">
         <v>0.930232558139535</v>
       </c>
-      <c r="G41" s="8"/>
+      <c r="G41" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -3148,7 +3228,9 @@
       <c r="F42" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -3172,7 +3254,9 @@
       <c r="F43" s="7">
         <v>0.72093023255814</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -3196,7 +3280,9 @@
       <c r="F44" s="7">
         <v>0.86046511627907</v>
       </c>
-      <c r="G44" s="8"/>
+      <c r="G44" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -3220,7 +3306,9 @@
       <c r="F45" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -3244,7 +3332,9 @@
       <c r="F46" s="7">
         <v>0.86046511627907</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -3268,7 +3358,9 @@
       <c r="F47" s="7">
         <v>0.27906976744186</v>
       </c>
-      <c r="G47" s="8"/>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -3292,7 +3384,9 @@
       <c r="F48" s="7">
         <v>0.6279069767441861</v>
       </c>
-      <c r="G48" s="8"/>
+      <c r="G48" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -3316,7 +3410,9 @@
       <c r="F49" s="7">
         <v>0.348837209302326</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -3340,7 +3436,9 @@
       <c r="F50" s="7">
         <v>0.86046511627907</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -3364,7 +3462,9 @@
       <c r="F51" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G51" s="8"/>
+      <c r="G51" s="7">
+        <v>0.78</v>
+      </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -3388,7 +3488,9 @@
       <c r="F52" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -3412,7 +3514,9 @@
       <c r="F53" s="7">
         <v>0.488372093023256</v>
       </c>
-      <c r="G53" s="8"/>
+      <c r="G53" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -3436,7 +3540,9 @@
       <c r="F54" s="7">
         <v>0.72093023255814</v>
       </c>
-      <c r="G54" s="8"/>
+      <c r="G54" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -3460,7 +3566,9 @@
       <c r="F55" s="7">
         <v>0.511627906976744</v>
       </c>
-      <c r="G55" s="8"/>
+      <c r="G55" s="7">
+        <v>0.694444444444444</v>
+      </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -3484,7 +3592,9 @@
       <c r="F56" s="7">
         <v>0.72093023255814</v>
       </c>
-      <c r="G56" s="8"/>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -3508,7 +3618,9 @@
       <c r="F57" s="7">
         <v>0.837209302325581</v>
       </c>
-      <c r="G57" s="8"/>
+      <c r="G57" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -3532,7 +3644,9 @@
       <c r="F58" s="7">
         <v>0.674418604651163</v>
       </c>
-      <c r="G58" s="8"/>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -3556,7 +3670,9 @@
       <c r="F59" s="7">
         <v>0</v>
       </c>
-      <c r="G59" s="8"/>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -3580,7 +3696,9 @@
       <c r="F60" s="7">
         <v>1</v>
       </c>
-      <c r="G60" s="8"/>
+      <c r="G60" s="7">
+        <v>0.805555555555556</v>
+      </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -3604,7 +3722,9 @@
       <c r="F61" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G61" s="8"/>
+      <c r="G61" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -3628,7 +3748,9 @@
       <c r="F62" s="7">
         <v>0.348837209302326</v>
       </c>
-      <c r="G62" s="8"/>
+      <c r="G62" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -3652,7 +3774,9 @@
       <c r="F63" s="7">
         <v>0.837209302325581</v>
       </c>
-      <c r="G63" s="8"/>
+      <c r="G63" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -3676,7 +3800,9 @@
       <c r="F64" s="7">
         <v>1</v>
       </c>
-      <c r="G64" s="8"/>
+      <c r="G64" s="7">
+        <v>0.694444444444444</v>
+      </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -3700,7 +3826,9 @@
       <c r="F65" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G65" s="8"/>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -3724,7 +3852,9 @@
       <c r="F66" s="7">
         <v>0.72093023255814</v>
       </c>
-      <c r="G66" s="8"/>
+      <c r="G66" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
@@ -3748,7 +3878,9 @@
       <c r="F67" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G67" s="8"/>
+      <c r="G67" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -3772,7 +3904,9 @@
       <c r="F68" s="7">
         <v>0.767441860465116</v>
       </c>
-      <c r="G68" s="8"/>
+      <c r="G68" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
@@ -3796,7 +3930,9 @@
       <c r="F69" s="7">
         <v>0.86046511627907</v>
       </c>
-      <c r="G69" s="8"/>
+      <c r="G69" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -3820,7 +3956,9 @@
       <c r="F70" s="7">
         <v>0.697674418604651</v>
       </c>
-      <c r="G70" s="8"/>
+      <c r="G70" s="7">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
@@ -3844,7 +3982,9 @@
       <c r="F71" s="7">
         <v>0.72093023255814</v>
       </c>
-      <c r="G71" s="8"/>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -3868,7 +4008,9 @@
       <c r="F72" s="7">
         <v>0.674418604651163</v>
       </c>
-      <c r="G72" s="8"/>
+      <c r="G72" s="7">
+        <v>0.805555555555556</v>
+      </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2191,7 +2191,7 @@
       <c r="G2" s="4">
         <v>0.833333333333333</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
@@ -2217,7 +2217,7 @@
       <c r="G3" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="G4" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
@@ -2269,7 +2269,7 @@
       <c r="G5" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
@@ -2295,7 +2295,7 @@
       <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
@@ -2321,7 +2321,7 @@
       <c r="G7" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
@@ -2347,7 +2347,7 @@
       <c r="G8" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
@@ -2373,7 +2373,7 @@
       <c r="G9" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
@@ -2399,7 +2399,7 @@
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
@@ -2425,7 +2425,9 @@
       <c r="G11" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="7">
+        <v>0.505747126436782</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
@@ -2451,7 +2453,9 @@
       <c r="G12" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="7">
+        <v>0.275862068965517</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
@@ -2477,7 +2481,7 @@
       <c r="G13" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
@@ -2503,7 +2507,7 @@
       <c r="G14" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
@@ -2529,7 +2533,7 @@
       <c r="G15" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
@@ -2555,7 +2559,7 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
@@ -2581,7 +2585,7 @@
       <c r="G17" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
@@ -2607,7 +2611,7 @@
       <c r="G18" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
@@ -2633,7 +2637,7 @@
       <c r="G19" s="7">
         <v>0.805555555555556</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
@@ -2659,7 +2663,7 @@
       <c r="G20" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
@@ -2685,7 +2689,7 @@
       <c r="G21" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
@@ -2711,7 +2715,7 @@
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
@@ -2737,7 +2741,7 @@
       <c r="G23" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
@@ -2763,7 +2767,7 @@
       <c r="G24" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
@@ -2789,7 +2793,7 @@
       <c r="G25" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
@@ -2815,7 +2819,7 @@
       <c r="G26" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
@@ -2841,7 +2845,7 @@
       <c r="G27" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
@@ -2867,7 +2871,7 @@
       <c r="G28" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
@@ -2893,7 +2897,7 @@
       <c r="G29" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
@@ -2919,7 +2923,7 @@
       <c r="G30" s="7">
         <v>0.805555555555556</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
@@ -2945,7 +2949,7 @@
       <c r="G31" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
@@ -2971,7 +2975,7 @@
       <c r="G32" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
@@ -2997,7 +3001,7 @@
       <c r="G33" s="7">
         <v>0</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
@@ -3023,7 +3027,7 @@
       <c r="G34" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
@@ -3049,7 +3053,7 @@
       <c r="G35" s="7">
         <v>0</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
@@ -3075,7 +3079,9 @@
       <c r="G36" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="7">
+        <v>0.402298850574713</v>
+      </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
@@ -3101,7 +3107,7 @@
       <c r="G37" s="7">
         <v>0</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
@@ -3127,7 +3133,9 @@
       <c r="G38" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="7">
+        <v>0.35632183908046</v>
+      </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
@@ -3153,7 +3161,7 @@
       <c r="G39" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
@@ -3179,7 +3187,7 @@
       <c r="G40" s="7">
         <v>0.805555555555556</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
@@ -3205,7 +3213,7 @@
       <c r="G41" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="7"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
     </row>
@@ -3231,7 +3239,7 @@
       <c r="G42" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="7"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
@@ -3257,7 +3265,7 @@
       <c r="G43" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
@@ -3283,7 +3291,7 @@
       <c r="G44" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
@@ -3309,7 +3317,7 @@
       <c r="G45" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
@@ -3335,7 +3343,7 @@
       <c r="G46" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="7"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
@@ -3361,7 +3369,9 @@
       <c r="G47" s="7">
         <v>0</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="7">
+        <v>0.367816091954023</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
@@ -3387,7 +3397,7 @@
       <c r="G48" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="7"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
@@ -3413,7 +3423,7 @@
       <c r="G49" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="7"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
@@ -3439,7 +3449,7 @@
       <c r="G50" s="7">
         <v>0</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
     </row>
@@ -3465,7 +3475,7 @@
       <c r="G51" s="7">
         <v>0.78</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
@@ -3491,7 +3501,7 @@
       <c r="G52" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="7"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
@@ -3517,7 +3527,7 @@
       <c r="G53" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="7"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
@@ -3543,7 +3553,7 @@
       <c r="G54" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
@@ -3569,7 +3579,7 @@
       <c r="G55" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" s="7"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
@@ -3595,7 +3605,7 @@
       <c r="G56" s="7">
         <v>0</v>
       </c>
-      <c r="H56" s="8"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
     </row>
@@ -3621,7 +3631,7 @@
       <c r="G57" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="H57" s="7"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
@@ -3647,7 +3657,7 @@
       <c r="G58" s="7">
         <v>0</v>
       </c>
-      <c r="H58" s="8"/>
+      <c r="H58" s="7"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
@@ -3673,7 +3683,7 @@
       <c r="G59" s="7">
         <v>0</v>
       </c>
-      <c r="H59" s="8"/>
+      <c r="H59" s="7"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
     </row>
@@ -3699,7 +3709,7 @@
       <c r="G60" s="7">
         <v>0.805555555555556</v>
       </c>
-      <c r="H60" s="8"/>
+      <c r="H60" s="7"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
     </row>
@@ -3725,7 +3735,7 @@
       <c r="G61" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="H61" s="7"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
     </row>
@@ -3751,7 +3761,7 @@
       <c r="G62" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H62" s="8"/>
+      <c r="H62" s="7"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
     </row>
@@ -3777,7 +3787,7 @@
       <c r="G63" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="7"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
     </row>
@@ -3803,7 +3813,7 @@
       <c r="G64" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H64" s="8"/>
+      <c r="H64" s="7"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
     </row>
@@ -3829,7 +3839,7 @@
       <c r="G65" s="7">
         <v>0</v>
       </c>
-      <c r="H65" s="8"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
@@ -3855,7 +3865,7 @@
       <c r="G66" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H66" s="8"/>
+      <c r="H66" s="7"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
     </row>
@@ -3881,7 +3891,7 @@
       <c r="G67" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="7"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
     </row>
@@ -3907,7 +3917,7 @@
       <c r="G68" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="H68" s="8"/>
+      <c r="H68" s="7"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
     </row>
@@ -3933,7 +3943,7 @@
       <c r="G69" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H69" s="8"/>
+      <c r="H69" s="7"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
     </row>
@@ -3959,7 +3969,7 @@
       <c r="G70" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H70" s="8"/>
+      <c r="H70" s="7"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
     </row>
@@ -3985,7 +3995,7 @@
       <c r="G71" s="7">
         <v>0</v>
       </c>
-      <c r="H71" s="8"/>
+      <c r="H71" s="7"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
     </row>
@@ -4011,7 +4021,7 @@
       <c r="G72" s="7">
         <v>0.805555555555556</v>
       </c>
-      <c r="H72" s="8"/>
+      <c r="H72" s="7"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
     </row>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2269,7 +2269,9 @@
       <c r="G5" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>0.367816091954023</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
@@ -2426,7 +2428,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="H11" s="7">
-        <v>0.505747126436782</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2454,7 +2456,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="H12" s="7">
-        <v>0.275862068965517</v>
+        <v>0.298850574712644</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2585,7 +2587,9 @@
       <c r="G17" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>0.264367816091954</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
@@ -2663,7 +2667,9 @@
       <c r="G20" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7">
+        <v>0.402298850574713</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
@@ -2923,7 +2929,9 @@
       <c r="G30" s="7">
         <v>0.805555555555556</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>0.264367816091954</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
@@ -2975,7 +2983,9 @@
       <c r="G32" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7">
+        <v>0.436781609195402</v>
+      </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
@@ -3027,7 +3037,9 @@
       <c r="G34" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>0.160919540229885</v>
+      </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
@@ -3080,7 +3092,7 @@
         <v>0.694444444444444</v>
       </c>
       <c r="H36" s="7">
-        <v>0.402298850574713</v>
+        <v>0.425287356321839</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -3134,7 +3146,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="H38" s="7">
-        <v>0.35632183908046</v>
+        <v>0.436781609195402</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -3187,7 +3199,9 @@
       <c r="G40" s="7">
         <v>0.805555555555556</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7">
+        <v>0.310344827586207</v>
+      </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
@@ -3370,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="7">
-        <v>0.367816091954023</v>
+        <v>0.471264367816092</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -3397,7 +3411,9 @@
       <c r="G48" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H48" s="7">
+        <v>0.367816091954023</v>
+      </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
@@ -3423,7 +3439,9 @@
       <c r="G49" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="7">
+        <v>0.563218390804598</v>
+      </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
@@ -3527,7 +3545,9 @@
       <c r="G53" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H53" s="7"/>
+      <c r="H53" s="7">
+        <v>0.517241379310345</v>
+      </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
@@ -3657,7 +3677,9 @@
       <c r="G58" s="7">
         <v>0</v>
       </c>
-      <c r="H58" s="7"/>
+      <c r="H58" s="7">
+        <v>0.126436781609195</v>
+      </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
@@ -3761,7 +3783,9 @@
       <c r="G62" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H62" s="7"/>
+      <c r="H62" s="7">
+        <v>0.310344827586207</v>
+      </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
     </row>
@@ -3813,7 +3837,9 @@
       <c r="G64" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H64" s="7"/>
+      <c r="H64" s="7">
+        <v>0.6091954022988511</v>
+      </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
     </row>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2217,7 +2217,9 @@
       <c r="G3" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>0.275862068965517</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
@@ -2297,7 +2299,9 @@
       <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>0.367816091954023</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
@@ -2851,7 +2855,9 @@
       <c r="G27" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7">
+        <v>0.482758620689655</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
@@ -3227,7 +3233,9 @@
       <c r="G41" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7">
+        <v>0.264367816091954</v>
+      </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
     </row>
@@ -3573,7 +3581,9 @@
       <c r="G54" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="H54" s="7">
+        <v>0.402298850574713</v>
+      </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2191,7 +2191,9 @@
       <c r="G2" s="4">
         <v>0.833333333333333</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4">
+        <v>0.64367816091954</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
@@ -2327,7 +2329,9 @@
       <c r="G7" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>0.425</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
@@ -2405,7 +2409,9 @@
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>0.4</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
@@ -2487,7 +2493,9 @@
       <c r="G13" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>0.0229885057471264</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
@@ -2645,7 +2653,9 @@
       <c r="G19" s="7">
         <v>0.805555555555556</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7">
+        <v>0.413793103448276</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
@@ -2699,7 +2709,9 @@
       <c r="G21" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7">
+        <v>0.367816091954023</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
@@ -2725,7 +2737,9 @@
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <v>0.310344827586207</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
@@ -2751,7 +2765,9 @@
       <c r="G23" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7">
+        <v>0.525</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
@@ -2777,7 +2793,9 @@
       <c r="G24" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7">
+        <v>0.103448275862069</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
@@ -2829,7 +2847,9 @@
       <c r="G26" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7">
+        <v>0.65</v>
+      </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
@@ -2963,7 +2983,9 @@
       <c r="G31" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7">
+        <v>0.35632183908046</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
@@ -3071,7 +3093,9 @@
       <c r="G35" s="7">
         <v>0</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7">
+        <v>0.6</v>
+      </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
@@ -3179,7 +3203,9 @@
       <c r="G39" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7">
+        <v>0.65</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
@@ -3313,7 +3339,9 @@
       <c r="G44" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="7">
+        <v>0.310344827586207</v>
+      </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
@@ -3609,7 +3637,9 @@
       <c r="G55" s="7">
         <v>0.694444444444444</v>
       </c>
-      <c r="H55" s="7"/>
+      <c r="H55" s="7">
+        <v>0.229885057471264</v>
+      </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
@@ -3875,7 +3905,9 @@
       <c r="G65" s="7">
         <v>0</v>
       </c>
-      <c r="H65" s="7"/>
+      <c r="H65" s="7">
+        <v>0.625</v>
+      </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
@@ -4057,7 +4089,9 @@
       <c r="G72" s="7">
         <v>0.805555555555556</v>
       </c>
-      <c r="H72" s="7"/>
+      <c r="H72" s="7">
+        <v>0.425287356321839</v>
+      </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
     </row>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2521,7 +2521,9 @@
       <c r="G14" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>0.6</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
@@ -2903,7 +2905,9 @@
       <c r="G28" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7">
+        <v>0.525</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
@@ -3149,7 +3153,9 @@
       <c r="G37" s="7">
         <v>0</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7">
+        <v>0.4</v>
+      </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
@@ -3367,7 +3373,9 @@
       <c r="G45" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7">
+        <v>0.5</v>
+      </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
@@ -3393,7 +3401,9 @@
       <c r="G46" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7">
+        <v>0.8</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
@@ -3503,7 +3513,9 @@
       <c r="G50" s="7">
         <v>0</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7">
+        <v>0.275</v>
+      </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
     </row>
@@ -4011,7 +4023,9 @@
       <c r="G69" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="H69" s="7"/>
+      <c r="H69" s="7">
+        <v>0.367816091954023</v>
+      </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
     </row>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2383,7 +2383,9 @@
       <c r="G9" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>0.75</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
@@ -2575,7 +2577,9 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7">
+        <v>0.675</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
@@ -2823,7 +2827,9 @@
       <c r="G25" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7">
+        <v>0.725</v>
+      </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
@@ -3043,7 +3049,9 @@
       <c r="G33" s="7">
         <v>0</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <v>0.65</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
@@ -3319,7 +3327,9 @@
       <c r="G43" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7">
+        <v>0.325</v>
+      </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
@@ -3567,7 +3577,9 @@
       <c r="G52" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="H52" s="7"/>
+      <c r="H52" s="7">
+        <v>0.65</v>
+      </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
@@ -3677,7 +3689,9 @@
       <c r="G56" s="7">
         <v>0</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="7">
+        <v>0.625</v>
+      </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
     </row>
@@ -3809,7 +3823,9 @@
       <c r="G61" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H61" s="7"/>
+      <c r="H61" s="7">
+        <v>0.5</v>
+      </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
     </row>
@@ -3863,7 +3879,9 @@
       <c r="G63" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H63" s="7"/>
+      <c r="H63" s="7">
+        <v>0.6</v>
+      </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
     </row>
@@ -3971,7 +3989,9 @@
       <c r="G67" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H67" s="7"/>
+      <c r="H67" s="7">
+        <v>0.625</v>
+      </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
     </row>
@@ -4077,7 +4097,9 @@
       <c r="G71" s="7">
         <v>0</v>
       </c>
-      <c r="H71" s="7"/>
+      <c r="H71" s="7">
+        <v>0.45</v>
+      </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
     </row>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2247,7 +2247,9 @@
       <c r="G4" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>0.75</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
@@ -2357,7 +2359,9 @@
       <c r="G8" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>0.775</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
@@ -2551,7 +2555,9 @@
       <c r="G15" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>0.65</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
@@ -2633,7 +2639,9 @@
       <c r="G18" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7">
+        <v>0.7</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
@@ -2939,7 +2947,9 @@
       <c r="G29" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7">
+        <v>0.725</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
@@ -3301,7 +3311,9 @@
       <c r="G42" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7">
+        <v>0.8</v>
+      </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
@@ -3551,7 +3563,9 @@
       <c r="G51" s="7">
         <v>0.78</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="7">
+        <v>0.65</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
@@ -3717,7 +3731,9 @@
       <c r="G57" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="7">
+        <v>0.575</v>
+      </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
@@ -3771,7 +3787,9 @@
       <c r="G59" s="7">
         <v>0</v>
       </c>
-      <c r="H59" s="7"/>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
     </row>
@@ -3963,7 +3981,9 @@
       <c r="G66" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H66" s="7"/>
+      <c r="H66" s="7">
+        <v>0.475</v>
+      </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
     </row>
@@ -4017,7 +4037,9 @@
       <c r="G68" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="H68" s="7"/>
+      <c r="H68" s="7">
+        <v>0.65</v>
+      </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
     </row>
@@ -4071,7 +4093,9 @@
       <c r="G70" s="7">
         <v>0.777777777777778</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="H70" s="7">
+        <v>0.725</v>
+      </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
     </row>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -1018,7 +1018,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1044,6 +1044,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2194,7 +2197,7 @@
       <c r="H2" s="4">
         <v>0.64367816091954</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" ht="14.35" customHeight="1">
@@ -2222,7 +2225,7 @@
       <c r="H3" s="7">
         <v>0.275862068965517</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" ht="14.35" customHeight="1">
@@ -2250,7 +2253,7 @@
       <c r="H4" s="7">
         <v>0.75</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
@@ -2278,7 +2281,7 @@
       <c r="H5" s="7">
         <v>0.367816091954023</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
@@ -2306,7 +2309,7 @@
       <c r="H6" s="7">
         <v>0.367816091954023</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
@@ -2334,7 +2337,7 @@
       <c r="H7" s="7">
         <v>0.425</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
@@ -2362,7 +2365,7 @@
       <c r="H8" s="7">
         <v>0.775</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
@@ -2390,7 +2393,7 @@
       <c r="H9" s="7">
         <v>0.75</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
@@ -2418,8 +2421,13 @@
       <c r="H10" s="7">
         <v>0.4</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="7">
+        <v>0.790123456790123</v>
+      </c>
+      <c r="J10" s="9">
+        <f>(LARGE(D10:G10,1)+LARGE(D10:G10,2))/2*0.35+(H10+I10)/2*0.65</f>
+        <v>0.713523078002245</v>
+      </c>
     </row>
     <row r="11" ht="14.35" customHeight="1">
       <c r="A11" t="s" s="6">
@@ -2446,7 +2454,7 @@
       <c r="H11" s="7">
         <v>0.551724137931034</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" ht="14.35" customHeight="1">
@@ -2474,7 +2482,7 @@
       <c r="H12" s="7">
         <v>0.298850574712644</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
@@ -2502,7 +2510,7 @@
       <c r="H13" s="7">
         <v>0.0229885057471264</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
@@ -2530,7 +2538,7 @@
       <c r="H14" s="7">
         <v>0.6</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" ht="14.35" customHeight="1">
@@ -2558,7 +2566,7 @@
       <c r="H15" s="7">
         <v>0.65</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" ht="14.35" customHeight="1">
@@ -2586,8 +2594,13 @@
       <c r="H16" s="7">
         <v>0.675</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="7">
+        <v>0.160493827160494</v>
+      </c>
+      <c r="J16" s="9">
+        <f>(LARGE(D16:G16,1)+LARGE(D16:G16,2))/2*0.35+(H16+I16)/2*0.65</f>
+        <v>0.405837819408556</v>
+      </c>
     </row>
     <row r="17" ht="14.35" customHeight="1">
       <c r="A17" t="s" s="6">
@@ -2614,7 +2627,7 @@
       <c r="H17" s="7">
         <v>0.264367816091954</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" ht="14.35" customHeight="1">
@@ -2642,7 +2655,7 @@
       <c r="H18" s="7">
         <v>0.7</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" ht="14.35" customHeight="1">
@@ -2670,7 +2683,7 @@
       <c r="H19" s="7">
         <v>0.413793103448276</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" ht="14.35" customHeight="1">
@@ -2698,7 +2711,7 @@
       <c r="H20" s="7">
         <v>0.402298850574713</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="8"/>
     </row>
     <row r="21" ht="14.35" customHeight="1">
@@ -2726,7 +2739,7 @@
       <c r="H21" s="7">
         <v>0.367816091954023</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" ht="14.35" customHeight="1">
@@ -2754,7 +2767,7 @@
       <c r="H22" s="7">
         <v>0.310344827586207</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" ht="14.35" customHeight="1">
@@ -2782,7 +2795,7 @@
       <c r="H23" s="7">
         <v>0.525</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="8"/>
     </row>
     <row r="24" ht="14.35" customHeight="1">
@@ -2810,7 +2823,7 @@
       <c r="H24" s="7">
         <v>0.103448275862069</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" ht="14.35" customHeight="1">
@@ -2838,7 +2851,7 @@
       <c r="H25" s="7">
         <v>0.725</v>
       </c>
-      <c r="I25" s="8"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" ht="14.35" customHeight="1">
@@ -2866,7 +2879,7 @@
       <c r="H26" s="7">
         <v>0.65</v>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="8"/>
     </row>
     <row r="27" ht="14.35" customHeight="1">
@@ -2894,7 +2907,7 @@
       <c r="H27" s="7">
         <v>0.482758620689655</v>
       </c>
-      <c r="I27" s="8"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
@@ -2922,8 +2935,13 @@
       <c r="H28" s="7">
         <v>0.525</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="I28" s="7">
+        <v>0.407407407407407</v>
+      </c>
+      <c r="J28" s="9">
+        <f>(LARGE(D28:G28,1)+LARGE(D28:G28,2))/2*0.35+(H28+I28)/2*0.65</f>
+        <v>0.602918771043771</v>
+      </c>
     </row>
     <row r="29" ht="14.35" customHeight="1">
       <c r="A29" t="s" s="6">
@@ -2950,7 +2968,7 @@
       <c r="H29" s="7">
         <v>0.725</v>
       </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" ht="14.35" customHeight="1">
@@ -2978,7 +2996,7 @@
       <c r="H30" s="7">
         <v>0.264367816091954</v>
       </c>
-      <c r="I30" s="8"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="8"/>
     </row>
     <row r="31" ht="14.35" customHeight="1">
@@ -3006,7 +3024,7 @@
       <c r="H31" s="7">
         <v>0.35632183908046</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="8"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
@@ -3034,7 +3052,7 @@
       <c r="H32" s="7">
         <v>0.436781609195402</v>
       </c>
-      <c r="I32" s="8"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="8"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
@@ -3062,7 +3080,7 @@
       <c r="H33" s="7">
         <v>0.65</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
     <row r="34" ht="14.35" customHeight="1">
@@ -3090,7 +3108,7 @@
       <c r="H34" s="7">
         <v>0.160919540229885</v>
       </c>
-      <c r="I34" s="8"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="8"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
@@ -3118,8 +3136,13 @@
       <c r="H35" s="7">
         <v>0.6</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="I35" s="7">
+        <v>0.679012345679012</v>
+      </c>
+      <c r="J35" s="9">
+        <f>(LARGE(D35:G35,1)+LARGE(D35:G35,2))/2*0.35+(H35+I35)/2*0.65</f>
+        <v>0.721332421436588</v>
+      </c>
     </row>
     <row r="36" ht="14.35" customHeight="1">
       <c r="A36" t="s" s="6">
@@ -3146,7 +3169,7 @@
       <c r="H36" s="7">
         <v>0.425287356321839</v>
       </c>
-      <c r="I36" s="8"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" ht="14.35" customHeight="1">
@@ -3174,8 +3197,13 @@
       <c r="H37" s="7">
         <v>0.4</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="I37" s="7">
+        <v>0.716049382716049</v>
+      </c>
+      <c r="J37" s="9">
+        <f>(LARGE(D37:G37,1)+LARGE(D37:G37,2))/2*0.35+(H37+I37)/2*0.65</f>
+        <v>0.643580874964111</v>
+      </c>
     </row>
     <row r="38" ht="14.35" customHeight="1">
       <c r="A38" t="s" s="6">
@@ -3202,7 +3230,7 @@
       <c r="H38" s="7">
         <v>0.436781609195402</v>
       </c>
-      <c r="I38" s="8"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="8"/>
     </row>
     <row r="39" ht="14.35" customHeight="1">
@@ -3230,7 +3258,7 @@
       <c r="H39" s="7">
         <v>0.65</v>
       </c>
-      <c r="I39" s="8"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
     <row r="40" ht="14.35" customHeight="1">
@@ -3258,7 +3286,7 @@
       <c r="H40" s="7">
         <v>0.310344827586207</v>
       </c>
-      <c r="I40" s="8"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="8"/>
     </row>
     <row r="41" ht="14.35" customHeight="1">
@@ -3286,7 +3314,7 @@
       <c r="H41" s="7">
         <v>0.264367816091954</v>
       </c>
-      <c r="I41" s="8"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="8"/>
     </row>
     <row r="42" ht="14.35" customHeight="1">
@@ -3314,7 +3342,7 @@
       <c r="H42" s="7">
         <v>0.8</v>
       </c>
-      <c r="I42" s="8"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="8"/>
     </row>
     <row r="43" ht="14.35" customHeight="1">
@@ -3342,7 +3370,7 @@
       <c r="H43" s="7">
         <v>0.325</v>
       </c>
-      <c r="I43" s="8"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="8"/>
     </row>
     <row r="44" ht="14.35" customHeight="1">
@@ -3370,7 +3398,7 @@
       <c r="H44" s="7">
         <v>0.310344827586207</v>
       </c>
-      <c r="I44" s="8"/>
+      <c r="I44" s="7"/>
       <c r="J44" s="8"/>
     </row>
     <row r="45" ht="14.35" customHeight="1">
@@ -3398,7 +3426,7 @@
       <c r="H45" s="7">
         <v>0.5</v>
       </c>
-      <c r="I45" s="8"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" ht="14.35" customHeight="1">
@@ -3426,8 +3454,13 @@
       <c r="H46" s="7">
         <v>0.8</v>
       </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="I46" s="7">
+        <v>0.876543209876543</v>
+      </c>
+      <c r="J46" s="9">
+        <f>(LARGE(D46:G46,1)+LARGE(D46:G46,2))/2*0.35+(H46+I46)/2*0.65</f>
+        <v>0.85570040684624</v>
+      </c>
     </row>
     <row r="47" ht="14.35" customHeight="1">
       <c r="A47" t="s" s="6">
@@ -3454,7 +3487,7 @@
       <c r="H47" s="7">
         <v>0.471264367816092</v>
       </c>
-      <c r="I47" s="8"/>
+      <c r="I47" s="7"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" ht="14.35" customHeight="1">
@@ -3482,7 +3515,7 @@
       <c r="H48" s="7">
         <v>0.367816091954023</v>
       </c>
-      <c r="I48" s="8"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="8"/>
     </row>
     <row r="49" ht="14.35" customHeight="1">
@@ -3510,7 +3543,7 @@
       <c r="H49" s="7">
         <v>0.563218390804598</v>
       </c>
-      <c r="I49" s="8"/>
+      <c r="I49" s="7"/>
       <c r="J49" s="8"/>
     </row>
     <row r="50" ht="14.35" customHeight="1">
@@ -3538,7 +3571,7 @@
       <c r="H50" s="7">
         <v>0.275</v>
       </c>
-      <c r="I50" s="8"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="8"/>
     </row>
     <row r="51" ht="14.35" customHeight="1">
@@ -3566,7 +3599,7 @@
       <c r="H51" s="7">
         <v>0.65</v>
       </c>
-      <c r="I51" s="8"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
     <row r="52" ht="14.35" customHeight="1">
@@ -3594,7 +3627,7 @@
       <c r="H52" s="7">
         <v>0.65</v>
       </c>
-      <c r="I52" s="8"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="8"/>
     </row>
     <row r="53" ht="14.35" customHeight="1">
@@ -3622,7 +3655,7 @@
       <c r="H53" s="7">
         <v>0.517241379310345</v>
       </c>
-      <c r="I53" s="8"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="8"/>
     </row>
     <row r="54" ht="14.35" customHeight="1">
@@ -3650,7 +3683,7 @@
       <c r="H54" s="7">
         <v>0.402298850574713</v>
       </c>
-      <c r="I54" s="8"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="8"/>
     </row>
     <row r="55" ht="14.35" customHeight="1">
@@ -3678,7 +3711,7 @@
       <c r="H55" s="7">
         <v>0.229885057471264</v>
       </c>
-      <c r="I55" s="8"/>
+      <c r="I55" s="7"/>
       <c r="J55" s="8"/>
     </row>
     <row r="56" ht="14.35" customHeight="1">
@@ -3706,7 +3739,7 @@
       <c r="H56" s="7">
         <v>0.625</v>
       </c>
-      <c r="I56" s="8"/>
+      <c r="I56" s="7"/>
       <c r="J56" s="8"/>
     </row>
     <row r="57" ht="14.35" customHeight="1">
@@ -3734,8 +3767,13 @@
       <c r="H57" s="7">
         <v>0.575</v>
       </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="I57" s="7">
+        <v>0.567901234567901</v>
+      </c>
+      <c r="J57" s="9">
+        <f>(LARGE(D57:G57,1)+LARGE(D57:G57,2))/2*0.35+(H57+I57)/2*0.65</f>
+        <v>0.669090892777908</v>
+      </c>
     </row>
     <row r="58" ht="14.35" customHeight="1">
       <c r="A58" t="s" s="6">
@@ -3762,7 +3800,7 @@
       <c r="H58" s="7">
         <v>0.126436781609195</v>
       </c>
-      <c r="I58" s="8"/>
+      <c r="I58" s="7"/>
       <c r="J58" s="8"/>
     </row>
     <row r="59" ht="14.35" customHeight="1">
@@ -3790,7 +3828,7 @@
       <c r="H59" s="7">
         <v>0</v>
       </c>
-      <c r="I59" s="8"/>
+      <c r="I59" s="7"/>
       <c r="J59" s="8"/>
     </row>
     <row r="60" ht="14.35" customHeight="1">
@@ -3815,8 +3853,10 @@
       <c r="G60" s="7">
         <v>0.805555555555556</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8"/>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7"/>
       <c r="J60" s="8"/>
     </row>
     <row r="61" ht="14.35" customHeight="1">
@@ -3844,8 +3884,13 @@
       <c r="H61" s="7">
         <v>0.5</v>
       </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
+      <c r="I61" s="7">
+        <v>0.382716049382716</v>
+      </c>
+      <c r="J61" s="9">
+        <f>(LARGE(D61:G61,1)+LARGE(D61:G61,2))/2*0.35+(H61+I61)/2*0.65</f>
+        <v>0.557296152741889</v>
+      </c>
     </row>
     <row r="62" ht="14.35" customHeight="1">
       <c r="A62" t="s" s="6">
@@ -3872,7 +3917,7 @@
       <c r="H62" s="7">
         <v>0.310344827586207</v>
       </c>
-      <c r="I62" s="8"/>
+      <c r="I62" s="7"/>
       <c r="J62" s="8"/>
     </row>
     <row r="63" ht="14.35" customHeight="1">
@@ -3900,8 +3945,13 @@
       <c r="H63" s="7">
         <v>0.6</v>
       </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
+      <c r="I63" s="7">
+        <v>0.592592592592593</v>
+      </c>
+      <c r="J63" s="9">
+        <f>(LARGE(D63:G63,1)+LARGE(D63:G63,2))/2*0.35+(H63+I63)/2*0.65</f>
+        <v>0.670215331610681</v>
+      </c>
     </row>
     <row r="64" ht="14.35" customHeight="1">
       <c r="A64" t="s" s="6">
@@ -3928,7 +3978,7 @@
       <c r="H64" s="7">
         <v>0.6091954022988511</v>
       </c>
-      <c r="I64" s="8"/>
+      <c r="I64" s="7"/>
       <c r="J64" s="8"/>
     </row>
     <row r="65" ht="14.35" customHeight="1">
@@ -3956,7 +4006,7 @@
       <c r="H65" s="7">
         <v>0.625</v>
       </c>
-      <c r="I65" s="8"/>
+      <c r="I65" s="7"/>
       <c r="J65" s="8"/>
     </row>
     <row r="66" ht="14.35" customHeight="1">
@@ -3984,7 +4034,7 @@
       <c r="H66" s="7">
         <v>0.475</v>
       </c>
-      <c r="I66" s="8"/>
+      <c r="I66" s="7"/>
       <c r="J66" s="8"/>
     </row>
     <row r="67" ht="14.35" customHeight="1">
@@ -4012,7 +4062,7 @@
       <c r="H67" s="7">
         <v>0.625</v>
       </c>
-      <c r="I67" s="8"/>
+      <c r="I67" s="7"/>
       <c r="J67" s="8"/>
     </row>
     <row r="68" ht="14.35" customHeight="1">
@@ -4040,8 +4090,13 @@
       <c r="H68" s="7">
         <v>0.65</v>
       </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
+      <c r="I68" s="7">
+        <v>0.802469135802469</v>
+      </c>
+      <c r="J68" s="9">
+        <f>(LARGE(D68:G68,1)+LARGE(D68:G68,2))/2*0.35+(H68+I68)/2*0.65</f>
+        <v>0.752917294717198</v>
+      </c>
     </row>
     <row r="69" ht="14.35" customHeight="1">
       <c r="A69" t="s" s="6">
@@ -4068,7 +4123,7 @@
       <c r="H69" s="7">
         <v>0.367816091954023</v>
       </c>
-      <c r="I69" s="8"/>
+      <c r="I69" s="7"/>
       <c r="J69" s="8"/>
     </row>
     <row r="70" ht="14.35" customHeight="1">
@@ -4096,8 +4151,13 @@
       <c r="H70" s="7">
         <v>0.725</v>
       </c>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+      <c r="I70" s="7">
+        <v>0.7654320987654319</v>
+      </c>
+      <c r="J70" s="9">
+        <f>(LARGE(D70:G70,1)+LARGE(D70:G70,2))/2*0.35+(H70+I70)/2*0.65</f>
+        <v>0.74259456646569</v>
+      </c>
     </row>
     <row r="71" ht="14.35" customHeight="1">
       <c r="A71" t="s" s="6">
@@ -4124,7 +4184,7 @@
       <c r="H71" s="7">
         <v>0.45</v>
       </c>
-      <c r="I71" s="8"/>
+      <c r="I71" s="7"/>
       <c r="J71" s="8"/>
     </row>
     <row r="72" ht="14.35" customHeight="1">
@@ -4152,7 +4212,7 @@
       <c r="H72" s="7">
         <v>0.425287356321839</v>
       </c>
-      <c r="I72" s="8"/>
+      <c r="I72" s="7"/>
       <c r="J72" s="8"/>
     </row>
   </sheetData>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2253,8 +2253,13 @@
       <c r="H4" s="7">
         <v>0.75</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="7">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="J4" s="9">
+        <f>(LARGE(D4:G4,1)+LARGE(D4:G4,2))/2*0.35+(H4+I4)/2*0.65</f>
+        <v>0.748339613838645</v>
+      </c>
     </row>
     <row r="5" ht="14.35" customHeight="1">
       <c r="A5" t="s" s="6">
@@ -2337,8 +2342,13 @@
       <c r="H7" s="7">
         <v>0.425</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="7">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="J7" s="9">
+        <f>(LARGE(D7:G7,1)+LARGE(D7:G7,2))/2*0.35+(H7+I7)/2*0.65</f>
+        <v>0.622941919191919</v>
+      </c>
     </row>
     <row r="8" ht="14.35" customHeight="1">
       <c r="A8" t="s" s="6">
@@ -2365,8 +2375,13 @@
       <c r="H8" s="7">
         <v>0.775</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="7">
+        <v>0.839506172839506</v>
+      </c>
+      <c r="J8" s="9">
+        <f>(LARGE(D8:G8,1)+LARGE(D8:G8,2))/2*0.35+(H8+I8)/2*0.65</f>
+        <v>0.821858401521677</v>
+      </c>
     </row>
     <row r="9" ht="14.35" customHeight="1">
       <c r="A9" t="s" s="6">
@@ -2538,8 +2553,13 @@
       <c r="H14" s="7">
         <v>0.6</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="7">
+        <v>0.839506172839506</v>
+      </c>
+      <c r="J14" s="9">
+        <f>(LARGE(D14:G14,1)+LARGE(D14:G14,2))/2*0.35+(H14+I14)/2*0.65</f>
+        <v>0.778663369809203</v>
+      </c>
     </row>
     <row r="15" ht="14.35" customHeight="1">
       <c r="A15" t="s" s="6">
@@ -2879,8 +2899,13 @@
       <c r="H26" s="7">
         <v>0.65</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
+      <c r="I26" s="7">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="J26" s="9">
+        <f>(LARGE(D26:G26,1)+LARGE(D26:G26,2))/2*0.35+(H26+I26)/2*0.65</f>
+        <v>0.717146464646465</v>
+      </c>
     </row>
     <row r="27" ht="14.35" customHeight="1">
       <c r="A27" t="s" s="6">
@@ -2968,8 +2993,13 @@
       <c r="H29" s="7">
         <v>0.725</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
+      <c r="I29" s="7">
+        <v>0.493827160493827</v>
+      </c>
+      <c r="J29" s="9">
+        <f>(LARGE(D29:G29,1)+LARGE(D29:G29,2))/2*0.35+(H29+I29)/2*0.65</f>
+        <v>0.695209736251403</v>
+      </c>
     </row>
     <row r="30" ht="14.35" customHeight="1">
       <c r="A30" t="s" s="6">
@@ -3080,8 +3110,13 @@
       <c r="H33" s="7">
         <v>0.65</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
+      <c r="I33" s="7">
+        <v>0.753086419753086</v>
+      </c>
+      <c r="J33" s="9">
+        <f>(LARGE(D33:G33,1)+LARGE(D33:G33,2))/2*0.35+(H33+I33)/2*0.65</f>
+        <v>0.789298540965208</v>
+      </c>
     </row>
     <row r="34" ht="14.35" customHeight="1">
       <c r="A34" t="s" s="6">
@@ -3258,8 +3293,13 @@
       <c r="H39" s="7">
         <v>0.65</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
+      <c r="I39" s="7">
+        <v>0.45679012345679</v>
+      </c>
+      <c r="J39" s="9">
+        <f>(LARGE(D39:G39,1)+LARGE(D39:G39,2))/2*0.35+(H39+I39)/2*0.65</f>
+        <v>0.67053065375982</v>
+      </c>
     </row>
     <row r="40" ht="14.35" customHeight="1">
       <c r="A40" t="s" s="6">
@@ -3342,8 +3382,13 @@
       <c r="H42" s="7">
         <v>0.8</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
+      <c r="I42" s="7">
+        <v>0.814814814814815</v>
+      </c>
+      <c r="J42" s="9">
+        <f>(LARGE(D42:G42,1)+LARGE(D42:G42,2))/2*0.35+(H42+I42)/2*0.65</f>
+        <v>0.843593223905724</v>
+      </c>
     </row>
     <row r="43" ht="14.35" customHeight="1">
       <c r="A43" t="s" s="6">
@@ -3426,8 +3471,13 @@
       <c r="H45" s="7">
         <v>0.5</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="8"/>
+      <c r="I45" s="7">
+        <v>0.654320987654321</v>
+      </c>
+      <c r="J45" s="9">
+        <f>(LARGE(D45:G45,1)+LARGE(D45:G45,2))/2*0.35+(H45+I45)/2*0.65</f>
+        <v>0.66914414656905</v>
+      </c>
     </row>
     <row r="46" ht="14.35" customHeight="1">
       <c r="A46" t="s" s="6">
@@ -3627,8 +3677,13 @@
       <c r="H52" s="7">
         <v>0.65</v>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
+      <c r="I52" s="7">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="J52" s="9">
+        <f>(LARGE(D52:G52,1)+LARGE(D52:G52,2))/2*0.35+(H52+I52)/2*0.65</f>
+        <v>0.729931183606087</v>
+      </c>
     </row>
     <row r="53" ht="14.35" customHeight="1">
       <c r="A53" t="s" s="6">
@@ -4006,8 +4061,13 @@
       <c r="H65" s="7">
         <v>0.625</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="8"/>
+      <c r="I65" s="7">
+        <v>0.432098765432099</v>
+      </c>
+      <c r="J65" s="9">
+        <f>(LARGE(D65:G65,1)+LARGE(D65:G65,2))/2*0.35+(H65+I65)/2*0.65</f>
+        <v>0.624421924346827</v>
+      </c>
     </row>
     <row r="66" ht="14.35" customHeight="1">
       <c r="A66" t="s" s="6">
@@ -4062,8 +4122,13 @@
       <c r="H67" s="7">
         <v>0.625</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="8"/>
+      <c r="I67" s="7">
+        <v>0.617283950617284</v>
+      </c>
+      <c r="J67" s="9">
+        <f>(LARGE(D67:G67,1)+LARGE(D67:G67,2))/2*0.35+(H67+I67)/2*0.65</f>
+        <v>0.714566147586981</v>
+      </c>
     </row>
     <row r="68" ht="14.35" customHeight="1">
       <c r="A68" t="s" s="6">

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -1043,10 +1043,10 @@
     <xf numFmtId="2" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2225,8 +2225,13 @@
       <c r="H3" s="7">
         <v>0.275862068965517</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="I3" s="7">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="J3" s="8">
+        <f>(LARGE(D3:G3,1)+LARGE(D3:G3,2))/2*0.35+(H3+I3)/2*0.65</f>
+        <v>0.443969835437472</v>
+      </c>
     </row>
     <row r="4" ht="14.35" customHeight="1">
       <c r="A4" t="s" s="6">
@@ -2256,7 +2261,7 @@
       <c r="I4" s="7">
         <v>0.691358024691358</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f>(LARGE(D4:G4,1)+LARGE(D4:G4,2))/2*0.35+(H4+I4)/2*0.65</f>
         <v>0.748339613838645</v>
       </c>
@@ -2287,7 +2292,7 @@
         <v>0.367816091954023</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
       <c r="A6" t="s" s="6">
@@ -2315,7 +2320,7 @@
         <v>0.367816091954023</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
       <c r="A7" t="s" s="6">
@@ -2345,7 +2350,7 @@
       <c r="I7" s="7">
         <v>0.555555555555556</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <f>(LARGE(D7:G7,1)+LARGE(D7:G7,2))/2*0.35+(H7+I7)/2*0.65</f>
         <v>0.622941919191919</v>
       </c>
@@ -2378,7 +2383,7 @@
       <c r="I8" s="7">
         <v>0.839506172839506</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <f>(LARGE(D8:G8,1)+LARGE(D8:G8,2))/2*0.35+(H8+I8)/2*0.65</f>
         <v>0.821858401521677</v>
       </c>
@@ -2408,8 +2413,13 @@
       <c r="H9" s="7">
         <v>0.75</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="7">
+        <v>0.876543209876543</v>
+      </c>
+      <c r="J9" s="8">
+        <f>(LARGE(D9:G9,1)+LARGE(D9:G9,2))/2*0.35+(H9+I9)/2*0.65</f>
+        <v>0.84601290684624</v>
+      </c>
     </row>
     <row r="10" ht="14.35" customHeight="1">
       <c r="A10" t="s" s="6">
@@ -2439,7 +2449,7 @@
       <c r="I10" s="7">
         <v>0.790123456790123</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <f>(LARGE(D10:G10,1)+LARGE(D10:G10,2))/2*0.35+(H10+I10)/2*0.65</f>
         <v>0.713523078002245</v>
       </c>
@@ -2469,8 +2479,13 @@
       <c r="H11" s="7">
         <v>0.551724137931034</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="7">
+        <v>0.338461538461538</v>
+      </c>
+      <c r="J11" s="8">
+        <f>(LARGE(D11:G11,1)+LARGE(D11:G11,2))/2*0.35+(H11+I11)/2*0.65</f>
+        <v>0.6220972300734881</v>
+      </c>
     </row>
     <row r="12" ht="14.35" customHeight="1">
       <c r="A12" t="s" s="6">
@@ -2498,7 +2513,7 @@
         <v>0.298850574712644</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
       <c r="A13" t="s" s="6">
@@ -2526,7 +2541,7 @@
         <v>0.0229885057471264</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
       <c r="A14" t="s" s="6">
@@ -2556,7 +2571,7 @@
       <c r="I14" s="7">
         <v>0.839506172839506</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <f>(LARGE(D14:G14,1)+LARGE(D14:G14,2))/2*0.35+(H14+I14)/2*0.65</f>
         <v>0.778663369809203</v>
       </c>
@@ -2586,8 +2601,13 @@
       <c r="H15" s="7">
         <v>0.65</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="7">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="J15" s="8">
+        <f>(LARGE(D15:G15,1)+LARGE(D15:G15,2))/2*0.35+(H15+I15)/2*0.65</f>
+        <v>0.661347853535353</v>
+      </c>
     </row>
     <row r="16" ht="14.35" customHeight="1">
       <c r="A16" t="s" s="6">
@@ -2617,7 +2637,7 @@
       <c r="I16" s="7">
         <v>0.160493827160494</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <f>(LARGE(D16:G16,1)+LARGE(D16:G16,2))/2*0.35+(H16+I16)/2*0.65</f>
         <v>0.405837819408556</v>
       </c>
@@ -2647,8 +2667,13 @@
       <c r="H17" s="7">
         <v>0.264367816091954</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="7">
+        <v>0.492307692307692</v>
+      </c>
+      <c r="J17" s="8">
+        <f>(LARGE(D17:G17,1)+LARGE(D17:G17,2))/2*0.35+(H17+I17)/2*0.65</f>
+        <v>0.570099868098737</v>
+      </c>
     </row>
     <row r="18" ht="14.35" customHeight="1">
       <c r="A18" t="s" s="6">
@@ -2675,8 +2700,13 @@
       <c r="H18" s="7">
         <v>0.7</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
+      <c r="I18" s="7">
+        <v>0.962962962962963</v>
+      </c>
+      <c r="J18" s="8">
+        <f>(LARGE(D18:G18,1)+LARGE(D18:G18,2))/2*0.35+(H18+I18)/2*0.65</f>
+        <v>0.8376068583118</v>
+      </c>
     </row>
     <row r="19" ht="14.35" customHeight="1">
       <c r="A19" t="s" s="6">
@@ -2704,7 +2734,7 @@
         <v>0.413793103448276</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" ht="14.35" customHeight="1">
       <c r="A20" t="s" s="6">
@@ -2732,7 +2762,7 @@
         <v>0.402298850574713</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" ht="14.35" customHeight="1">
       <c r="A21" t="s" s="6">
@@ -2760,7 +2790,7 @@
         <v>0.367816091954023</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" ht="14.35" customHeight="1">
       <c r="A22" t="s" s="6">
@@ -2788,7 +2818,7 @@
         <v>0.310344827586207</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" ht="14.35" customHeight="1">
       <c r="A23" t="s" s="6">
@@ -2815,8 +2845,13 @@
       <c r="H23" s="7">
         <v>0.525</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
+      <c r="I23" s="7">
+        <v>0.740740740740741</v>
+      </c>
+      <c r="J23" s="8">
+        <f>(LARGE(D23:G23,1)+LARGE(D23:G23,2))/2*0.35+(H23+I23)/2*0.65</f>
+        <v>0.722189604377105</v>
+      </c>
     </row>
     <row r="24" ht="14.35" customHeight="1">
       <c r="A24" t="s" s="6">
@@ -2843,8 +2878,13 @@
       <c r="H24" s="7">
         <v>0.103448275862069</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="7">
+        <v>0.215384615384615</v>
+      </c>
+      <c r="J24" s="8">
+        <f>(LARGE(D24:G24,1)+LARGE(D24:G24,2))/2*0.35+(H24+I24)/2*0.65</f>
+        <v>0.412244720662924</v>
+      </c>
     </row>
     <row r="25" ht="14.35" customHeight="1">
       <c r="A25" t="s" s="6">
@@ -2871,8 +2911,13 @@
       <c r="H25" s="7">
         <v>0.725</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
+      <c r="I25" s="7">
+        <v>0.851851851851852</v>
+      </c>
+      <c r="J25" s="8">
+        <f>(LARGE(D25:G25,1)+LARGE(D25:G25,2))/2*0.35+(H25+I25)/2*0.65</f>
+        <v>0.799525462962963</v>
+      </c>
     </row>
     <row r="26" ht="14.35" customHeight="1">
       <c r="A26" t="s" s="6">
@@ -2902,7 +2947,7 @@
       <c r="I26" s="7">
         <v>0.555555555555556</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <f>(LARGE(D26:G26,1)+LARGE(D26:G26,2))/2*0.35+(H26+I26)/2*0.65</f>
         <v>0.717146464646465</v>
       </c>
@@ -2933,7 +2978,7 @@
         <v>0.482758620689655</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
       <c r="A28" t="s" s="6">
@@ -2963,7 +3008,7 @@
       <c r="I28" s="7">
         <v>0.407407407407407</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <f>(LARGE(D28:G28,1)+LARGE(D28:G28,2))/2*0.35+(H28+I28)/2*0.65</f>
         <v>0.602918771043771</v>
       </c>
@@ -2996,7 +3041,7 @@
       <c r="I29" s="7">
         <v>0.493827160493827</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <f>(LARGE(D29:G29,1)+LARGE(D29:G29,2))/2*0.35+(H29+I29)/2*0.65</f>
         <v>0.695209736251403</v>
       </c>
@@ -3026,8 +3071,13 @@
       <c r="H30" s="7">
         <v>0.264367816091954</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
+      <c r="I30" s="7">
+        <v>0.415384615384615</v>
+      </c>
+      <c r="J30" s="8">
+        <f>(LARGE(D30:G30,1)+LARGE(D30:G30,2))/2*0.35+(H30+I30)/2*0.65</f>
+        <v>0.498002873563218</v>
+      </c>
     </row>
     <row r="31" ht="14.35" customHeight="1">
       <c r="A31" t="s" s="6">
@@ -3055,7 +3105,7 @@
         <v>0.35632183908046</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
       <c r="A32" t="s" s="6">
@@ -3083,7 +3133,7 @@
         <v>0.436781609195402</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
       <c r="A33" t="s" s="6">
@@ -3113,7 +3163,7 @@
       <c r="I33" s="7">
         <v>0.753086419753086</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <f>(LARGE(D33:G33,1)+LARGE(D33:G33,2))/2*0.35+(H33+I33)/2*0.65</f>
         <v>0.789298540965208</v>
       </c>
@@ -3144,7 +3194,7 @@
         <v>0.160919540229885</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
       <c r="A35" t="s" s="6">
@@ -3174,7 +3224,7 @@
       <c r="I35" s="7">
         <v>0.679012345679012</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <f>(LARGE(D35:G35,1)+LARGE(D35:G35,2))/2*0.35+(H35+I35)/2*0.65</f>
         <v>0.721332421436588</v>
       </c>
@@ -3204,8 +3254,13 @@
       <c r="H36" s="7">
         <v>0.425287356321839</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
+      <c r="I36" s="7">
+        <v>0.584615384615385</v>
+      </c>
+      <c r="J36" s="8">
+        <f>(LARGE(D36:G36,1)+LARGE(D36:G36,2))/2*0.35+(H36+I36)/2*0.65</f>
+        <v>0.611234021761517</v>
+      </c>
     </row>
     <row r="37" ht="14.35" customHeight="1">
       <c r="A37" t="s" s="6">
@@ -3235,7 +3290,7 @@
       <c r="I37" s="7">
         <v>0.716049382716049</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <f>(LARGE(D37:G37,1)+LARGE(D37:G37,2))/2*0.35+(H37+I37)/2*0.65</f>
         <v>0.643580874964111</v>
       </c>
@@ -3265,8 +3320,13 @@
       <c r="H38" s="7">
         <v>0.436781609195402</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
+      <c r="I38" s="7">
+        <v>0.415384615384615</v>
+      </c>
+      <c r="J38" s="8">
+        <f>(LARGE(D38:G38,1)+LARGE(D38:G38,2))/2*0.35+(H38+I38)/2*0.65</f>
+        <v>0.597787356321839</v>
+      </c>
     </row>
     <row r="39" ht="14.35" customHeight="1">
       <c r="A39" t="s" s="6">
@@ -3296,7 +3356,7 @@
       <c r="I39" s="7">
         <v>0.45679012345679</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <f>(LARGE(D39:G39,1)+LARGE(D39:G39,2))/2*0.35+(H39+I39)/2*0.65</f>
         <v>0.67053065375982</v>
       </c>
@@ -3327,7 +3387,7 @@
         <v>0.310344827586207</v>
       </c>
       <c r="I40" s="7"/>
-      <c r="J40" s="8"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" ht="14.35" customHeight="1">
       <c r="A41" t="s" s="6">
@@ -3355,7 +3415,7 @@
         <v>0.264367816091954</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" ht="14.35" customHeight="1">
       <c r="A42" t="s" s="6">
@@ -3385,7 +3445,7 @@
       <c r="I42" s="7">
         <v>0.814814814814815</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <f>(LARGE(D42:G42,1)+LARGE(D42:G42,2))/2*0.35+(H42+I42)/2*0.65</f>
         <v>0.843593223905724</v>
       </c>
@@ -3415,8 +3475,13 @@
       <c r="H43" s="7">
         <v>0.325</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
+      <c r="I43" s="7">
+        <v>0.358024691358025</v>
+      </c>
+      <c r="J43" s="8">
+        <f>(LARGE(D43:G43,1)+LARGE(D43:G43,2))/2*0.35+(H43+I43)/2*0.65</f>
+        <v>0.504656635802469</v>
+      </c>
     </row>
     <row r="44" ht="14.35" customHeight="1">
       <c r="A44" t="s" s="6">
@@ -3444,7 +3509,7 @@
         <v>0.310344827586207</v>
       </c>
       <c r="I44" s="7"/>
-      <c r="J44" s="8"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" ht="14.35" customHeight="1">
       <c r="A45" t="s" s="6">
@@ -3474,7 +3539,7 @@
       <c r="I45" s="7">
         <v>0.654320987654321</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="8">
         <f>(LARGE(D45:G45,1)+LARGE(D45:G45,2))/2*0.35+(H45+I45)/2*0.65</f>
         <v>0.66914414656905</v>
       </c>
@@ -3507,7 +3572,7 @@
       <c r="I46" s="7">
         <v>0.876543209876543</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="8">
         <f>(LARGE(D46:G46,1)+LARGE(D46:G46,2))/2*0.35+(H46+I46)/2*0.65</f>
         <v>0.85570040684624</v>
       </c>
@@ -3538,7 +3603,7 @@
         <v>0.471264367816092</v>
       </c>
       <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" ht="14.35" customHeight="1">
       <c r="A48" t="s" s="6">
@@ -3566,7 +3631,7 @@
         <v>0.367816091954023</v>
       </c>
       <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" ht="14.35" customHeight="1">
       <c r="A49" t="s" s="6">
@@ -3594,7 +3659,7 @@
         <v>0.563218390804598</v>
       </c>
       <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" ht="14.35" customHeight="1">
       <c r="A50" t="s" s="6">
@@ -3621,8 +3686,13 @@
       <c r="H50" s="7">
         <v>0.275</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="8"/>
+      <c r="I50" s="7">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="J50" s="8">
+        <f>(LARGE(D50:G50,1)+LARGE(D50:G50,2))/2*0.35+(H50+I50)/2*0.65</f>
+        <v>0.551446294338736</v>
+      </c>
     </row>
     <row r="51" ht="14.35" customHeight="1">
       <c r="A51" t="s" s="6">
@@ -3649,8 +3719,13 @@
       <c r="H51" s="7">
         <v>0.65</v>
       </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
+      <c r="I51" s="7">
+        <v>0.592592592592593</v>
+      </c>
+      <c r="J51" s="8">
+        <f>(LARGE(D51:G51,1)+LARGE(D51:G51,2))/2*0.35+(H51+I51)/2*0.65</f>
+        <v>0.6914789562289561</v>
+      </c>
     </row>
     <row r="52" ht="14.35" customHeight="1">
       <c r="A52" t="s" s="6">
@@ -3680,7 +3755,7 @@
       <c r="I52" s="7">
         <v>0.691358024691358</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="8">
         <f>(LARGE(D52:G52,1)+LARGE(D52:G52,2))/2*0.35+(H52+I52)/2*0.65</f>
         <v>0.729931183606087</v>
       </c>
@@ -3711,7 +3786,7 @@
         <v>0.517241379310345</v>
       </c>
       <c r="I53" s="7"/>
-      <c r="J53" s="8"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" ht="14.35" customHeight="1">
       <c r="A54" t="s" s="6">
@@ -3739,7 +3814,7 @@
         <v>0.402298850574713</v>
       </c>
       <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" ht="14.35" customHeight="1">
       <c r="A55" t="s" s="6">
@@ -3767,7 +3842,7 @@
         <v>0.229885057471264</v>
       </c>
       <c r="I55" s="7"/>
-      <c r="J55" s="8"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" ht="14.35" customHeight="1">
       <c r="A56" t="s" s="6">
@@ -3794,8 +3869,13 @@
       <c r="H56" s="7">
         <v>0.625</v>
       </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="8"/>
+      <c r="I56" s="7">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="J56" s="8">
+        <f>(LARGE(D56:G56,1)+LARGE(D56:G56,2))/2*0.35+(H56+I56)/2*0.65</f>
+        <v>0.747986812570146</v>
+      </c>
     </row>
     <row r="57" ht="14.35" customHeight="1">
       <c r="A57" t="s" s="6">
@@ -3825,7 +3905,7 @@
       <c r="I57" s="7">
         <v>0.567901234567901</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="8">
         <f>(LARGE(D57:G57,1)+LARGE(D57:G57,2))/2*0.35+(H57+I57)/2*0.65</f>
         <v>0.669090892777908</v>
       </c>
@@ -3855,8 +3935,13 @@
       <c r="H58" s="7">
         <v>0.126436781609195</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="8"/>
+      <c r="I58" s="7">
+        <v>0.523076923076923</v>
+      </c>
+      <c r="J58" s="8">
+        <f>(LARGE(D58:G58,1)+LARGE(D58:G58,2))/2*0.35+(H58+I58)/2*0.65</f>
+        <v>0.466820127869729</v>
+      </c>
     </row>
     <row r="59" ht="14.35" customHeight="1">
       <c r="A59" t="s" s="6">
@@ -3884,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="7"/>
-      <c r="J59" s="8"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" ht="14.35" customHeight="1">
       <c r="A60" t="s" s="6">
@@ -3912,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="7"/>
-      <c r="J60" s="8"/>
+      <c r="J60" s="9"/>
     </row>
     <row r="61" ht="14.35" customHeight="1">
       <c r="A61" t="s" s="6">
@@ -3942,7 +4027,7 @@
       <c r="I61" s="7">
         <v>0.382716049382716</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="8">
         <f>(LARGE(D61:G61,1)+LARGE(D61:G61,2))/2*0.35+(H61+I61)/2*0.65</f>
         <v>0.557296152741889</v>
       </c>
@@ -3973,7 +4058,7 @@
         <v>0.310344827586207</v>
       </c>
       <c r="I62" s="7"/>
-      <c r="J62" s="8"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63" ht="14.35" customHeight="1">
       <c r="A63" t="s" s="6">
@@ -4003,7 +4088,7 @@
       <c r="I63" s="7">
         <v>0.592592592592593</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="8">
         <f>(LARGE(D63:G63,1)+LARGE(D63:G63,2))/2*0.35+(H63+I63)/2*0.65</f>
         <v>0.670215331610681</v>
       </c>
@@ -4034,7 +4119,7 @@
         <v>0.6091954022988511</v>
       </c>
       <c r="I64" s="7"/>
-      <c r="J64" s="8"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65" ht="14.35" customHeight="1">
       <c r="A65" t="s" s="6">
@@ -4064,7 +4149,7 @@
       <c r="I65" s="7">
         <v>0.432098765432099</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="8">
         <f>(LARGE(D65:G65,1)+LARGE(D65:G65,2))/2*0.35+(H65+I65)/2*0.65</f>
         <v>0.624421924346827</v>
       </c>
@@ -4094,8 +4179,13 @@
       <c r="H66" s="7">
         <v>0.475</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="8"/>
+      <c r="I66" s="7">
+        <v>0.7654320987654319</v>
+      </c>
+      <c r="J66" s="8">
+        <f>(LARGE(D66:G66,1)+LARGE(D66:G66,2))/2*0.35+(H66+I66)/2*0.65</f>
+        <v>0.694276795735129</v>
+      </c>
     </row>
     <row r="67" ht="14.35" customHeight="1">
       <c r="A67" t="s" s="6">
@@ -4125,7 +4215,7 @@
       <c r="I67" s="7">
         <v>0.617283950617284</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="8">
         <f>(LARGE(D67:G67,1)+LARGE(D67:G67,2))/2*0.35+(H67+I67)/2*0.65</f>
         <v>0.714566147586981</v>
       </c>
@@ -4158,7 +4248,7 @@
       <c r="I68" s="7">
         <v>0.802469135802469</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="8">
         <f>(LARGE(D68:G68,1)+LARGE(D68:G68,2))/2*0.35+(H68+I68)/2*0.65</f>
         <v>0.752917294717198</v>
       </c>
@@ -4189,7 +4279,7 @@
         <v>0.367816091954023</v>
       </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="8"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" ht="14.35" customHeight="1">
       <c r="A70" t="s" s="6">
@@ -4219,7 +4309,7 @@
       <c r="I70" s="7">
         <v>0.7654320987654319</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J70" s="8">
         <f>(LARGE(D70:G70,1)+LARGE(D70:G70,2))/2*0.35+(H70+I70)/2*0.65</f>
         <v>0.74259456646569</v>
       </c>
@@ -4249,8 +4339,13 @@
       <c r="H71" s="7">
         <v>0.45</v>
       </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="8"/>
+      <c r="I71" s="7">
+        <v>0.580246913580247</v>
+      </c>
+      <c r="J71" s="8">
+        <f>(LARGE(D71:G71,1)+LARGE(D71:G71,2))/2*0.35+(H71+I71)/2*0.65</f>
+        <v>0.655000701459035</v>
+      </c>
     </row>
     <row r="72" ht="14.35" customHeight="1">
       <c r="A72" t="s" s="6">
@@ -4278,7 +4373,7 @@
         <v>0.425287356321839</v>
       </c>
       <c r="I72" s="7"/>
-      <c r="J72" s="8"/>
+      <c r="J72" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -1018,7 +1018,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1034,7 +1034,7 @@
     <xf numFmtId="2" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1044,9 +1044,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2197,8 +2194,13 @@
       <c r="H2" s="4">
         <v>0.64367816091954</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="4">
+        <v>0.692307692307692</v>
+      </c>
+      <c r="J2" s="5">
+        <f>(LARGE(D2:G2,1)+LARGE(D2:G2,2))/2*0.35+(H2+I2)/2*0.65</f>
+        <v>0.766982287544752</v>
+      </c>
     </row>
     <row r="3" ht="14.35" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -2291,8 +2293,13 @@
       <c r="H5" s="7">
         <v>0.367816091954023</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="7">
+        <v>0.246153846153846</v>
+      </c>
+      <c r="J5" s="8">
+        <f>(LARGE(D5:G5,1)+LARGE(D5:G5,2))/2*0.35+(H5+I5)/2*0.65</f>
+        <v>0.477340776333145</v>
+      </c>
     </row>
     <row r="6" ht="14.35" customHeight="1">
       <c r="A6" t="s" s="6">
@@ -2319,8 +2326,13 @@
       <c r="H6" s="7">
         <v>0.367816091954023</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="7">
+        <v>0.384615384615385</v>
+      </c>
+      <c r="J6" s="8">
+        <f>(LARGE(D6:G6,1)+LARGE(D6:G6,2))/2*0.35+(H6+I6)/2*0.65</f>
+        <v>0.460104469305569</v>
+      </c>
     </row>
     <row r="7" ht="14.35" customHeight="1">
       <c r="A7" t="s" s="6">
@@ -2512,8 +2524,13 @@
       <c r="H12" s="7">
         <v>0.298850574712644</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <f>(LARGE(D12:G12,1)+LARGE(D12:G12,2))/2*0.35+(H12+I12)/2*0.65</f>
+        <v>0.388793103448276</v>
+      </c>
     </row>
     <row r="13" ht="14.35" customHeight="1">
       <c r="A13" t="s" s="6">
@@ -2540,8 +2557,13 @@
       <c r="H13" s="7">
         <v>0.0229885057471264</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="7">
+        <v>0.523076923076923</v>
+      </c>
+      <c r="J13" s="8">
+        <f>(LARGE(D13:G13,1)+LARGE(D13:G13,2))/2*0.35+(H13+I13)/2*0.65</f>
+        <v>0.498304597701149</v>
+      </c>
     </row>
     <row r="14" ht="14.35" customHeight="1">
       <c r="A14" t="s" s="6">
@@ -2733,8 +2755,13 @@
       <c r="H19" s="7">
         <v>0.413793103448276</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="7">
+        <v>0.507692307692308</v>
+      </c>
+      <c r="J19" s="8">
+        <f>(LARGE(D19:G19,1)+LARGE(D19:G19,2))/2*0.35+(H19+I19)/2*0.65</f>
+        <v>0.576566091954023</v>
+      </c>
     </row>
     <row r="20" ht="14.35" customHeight="1">
       <c r="A20" t="s" s="6">
@@ -2761,8 +2788,13 @@
       <c r="H20" s="7">
         <v>0.402298850574713</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="9"/>
+      <c r="I20" s="7">
+        <v>0.353846153846154</v>
+      </c>
+      <c r="J20" s="8">
+        <f>(LARGE(D20:G20,1)+LARGE(D20:G20,2))/2*0.35+(H20+I20)/2*0.65</f>
+        <v>0.532154230261918</v>
+      </c>
     </row>
     <row r="21" ht="14.35" customHeight="1">
       <c r="A21" t="s" s="6">
@@ -2789,8 +2821,13 @@
       <c r="H21" s="7">
         <v>0.367816091954023</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="7">
+        <v>0.384615384615385</v>
+      </c>
+      <c r="J21" s="8">
+        <f>(LARGE(D21:G21,1)+LARGE(D21:G21,2))/2*0.35+(H21+I21)/2*0.65</f>
+        <v>0.483978214381182</v>
+      </c>
     </row>
     <row r="22" ht="14.35" customHeight="1">
       <c r="A22" t="s" s="6">
@@ -2817,8 +2854,13 @@
       <c r="H22" s="7">
         <v>0.310344827586207</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <f>(LARGE(D22:G22,1)+LARGE(D22:G22,2))/2*0.35+(H22+I22)/2*0.65</f>
+        <v>0.100862068965517</v>
+      </c>
     </row>
     <row r="23" ht="14.35" customHeight="1">
       <c r="A23" t="s" s="6">
@@ -2977,8 +3019,13 @@
       <c r="H27" s="7">
         <v>0.482758620689655</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="9"/>
+      <c r="I27" s="7">
+        <v>0.384615384615385</v>
+      </c>
+      <c r="J27" s="8">
+        <f>(LARGE(D27:G27,1)+LARGE(D27:G27,2))/2*0.35+(H27+I27)/2*0.65</f>
+        <v>0.5769102129263241</v>
+      </c>
     </row>
     <row r="28" ht="14.35" customHeight="1">
       <c r="A28" t="s" s="6">
@@ -3104,8 +3151,13 @@
       <c r="H31" s="7">
         <v>0.35632183908046</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="J31" s="8">
+        <f>(LARGE(D31:G31,1)+LARGE(D31:G31,2))/2*0.35+(H31+I31)/2*0.65</f>
+        <v>0.626378368192953</v>
+      </c>
     </row>
     <row r="32" ht="14.35" customHeight="1">
       <c r="A32" t="s" s="6">
@@ -3132,8 +3184,13 @@
       <c r="H32" s="7">
         <v>0.436781609195402</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J32" s="8">
+        <f>(LARGE(D32:G32,1)+LARGE(D32:G32,2))/2*0.35+(H32+I32)/2*0.65</f>
+        <v>0.592787356321839</v>
+      </c>
     </row>
     <row r="33" ht="14.35" customHeight="1">
       <c r="A33" t="s" s="6">
@@ -3193,8 +3250,13 @@
       <c r="H34" s="7">
         <v>0.160919540229885</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="9"/>
+      <c r="I34" s="7">
+        <v>0.476923076923077</v>
+      </c>
+      <c r="J34" s="8">
+        <f>(LARGE(D34:G34,1)+LARGE(D34:G34,2))/2*0.35+(H34+I34)/2*0.65</f>
+        <v>0.50382662835249</v>
+      </c>
     </row>
     <row r="35" ht="14.35" customHeight="1">
       <c r="A35" t="s" s="6">
@@ -3321,11 +3383,11 @@
         <v>0.436781609195402</v>
       </c>
       <c r="I38" s="7">
-        <v>0.415384615384615</v>
+        <v>0.430769230769231</v>
       </c>
       <c r="J38" s="8">
         <f>(LARGE(D38:G38,1)+LARGE(D38:G38,2))/2*0.35+(H38+I38)/2*0.65</f>
-        <v>0.597787356321839</v>
+        <v>0.602787356321839</v>
       </c>
     </row>
     <row r="39" ht="14.35" customHeight="1">
@@ -3386,8 +3448,13 @@
       <c r="H40" s="7">
         <v>0.310344827586207</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="9"/>
+      <c r="I40" s="7">
+        <v>0.538461538461538</v>
+      </c>
+      <c r="J40" s="8">
+        <f>(LARGE(D40:G40,1)+LARGE(D40:G40,2))/2*0.35+(H40+I40)/2*0.65</f>
+        <v>0.556834291187739</v>
+      </c>
     </row>
     <row r="41" ht="14.35" customHeight="1">
       <c r="A41" t="s" s="6">
@@ -3414,8 +3481,13 @@
       <c r="H41" s="7">
         <v>0.264367816091954</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="9"/>
+      <c r="I41" s="7">
+        <v>0.476923076923077</v>
+      </c>
+      <c r="J41" s="8">
+        <f>(LARGE(D41:G41,1)+LARGE(D41:G41,2))/2*0.35+(H41+I41)/2*0.65</f>
+        <v>0.549543571237637</v>
+      </c>
     </row>
     <row r="42" ht="14.35" customHeight="1">
       <c r="A42" t="s" s="6">
@@ -3508,8 +3580,13 @@
       <c r="H44" s="7">
         <v>0.310344827586207</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="9"/>
+      <c r="I44" s="7">
+        <v>0.384615384615385</v>
+      </c>
+      <c r="J44" s="8">
+        <f>(LARGE(D44:G44,1)+LARGE(D44:G44,2))/2*0.35+(H44+I44)/2*0.65</f>
+        <v>0.522276797647688</v>
+      </c>
     </row>
     <row r="45" ht="14.35" customHeight="1">
       <c r="A45" t="s" s="6">
@@ -3602,8 +3679,13 @@
       <c r="H47" s="7">
         <v>0.471264367816092</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="9"/>
+      <c r="I47" s="7">
+        <v>0.507692307692308</v>
+      </c>
+      <c r="J47" s="8">
+        <f>(LARGE(D47:G47,1)+LARGE(D47:G47,2))/2*0.35+(H47+I47)/2*0.65</f>
+        <v>0.366998128842556</v>
+      </c>
     </row>
     <row r="48" ht="14.35" customHeight="1">
       <c r="A48" t="s" s="6">
@@ -3630,8 +3712,13 @@
       <c r="H48" s="7">
         <v>0.367816091954023</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="9"/>
+      <c r="I48" s="7">
+        <v>0.384615384615385</v>
+      </c>
+      <c r="J48" s="8">
+        <f>(LARGE(D48:G48,1)+LARGE(D48:G48,2))/2*0.35+(H48+I48)/2*0.65</f>
+        <v>0.536206896551724</v>
+      </c>
     </row>
     <row r="49" ht="14.35" customHeight="1">
       <c r="A49" t="s" s="6">
@@ -3658,8 +3745,13 @@
       <c r="H49" s="7">
         <v>0.563218390804598</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="9"/>
+      <c r="I49" s="7">
+        <v>0.630769230769231</v>
+      </c>
+      <c r="J49" s="8">
+        <f>(LARGE(D49:G49,1)+LARGE(D49:G49,2))/2*0.35+(H49+I49)/2*0.65</f>
+        <v>0.628551441492369</v>
+      </c>
     </row>
     <row r="50" ht="14.35" customHeight="1">
       <c r="A50" t="s" s="6">
@@ -3785,8 +3877,13 @@
       <c r="H53" s="7">
         <v>0.517241379310345</v>
       </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="9"/>
+      <c r="I53" s="7">
+        <v>0.630769230769231</v>
+      </c>
+      <c r="J53" s="8">
+        <f>(LARGE(D53:G53,1)+LARGE(D53:G53,2))/2*0.35+(H53+I53)/2*0.65</f>
+        <v>0.664770114942529</v>
+      </c>
     </row>
     <row r="54" ht="14.35" customHeight="1">
       <c r="A54" t="s" s="6">
@@ -3813,8 +3910,13 @@
       <c r="H54" s="7">
         <v>0.402298850574713</v>
       </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="9"/>
+      <c r="I54" s="7">
+        <v>0.261538461538462</v>
+      </c>
+      <c r="J54" s="8">
+        <f>(LARGE(D54:G54,1)+LARGE(D54:G54,2))/2*0.35+(H54+I54)/2*0.65</f>
+        <v>0.507413793103448</v>
+      </c>
     </row>
     <row r="55" ht="14.35" customHeight="1">
       <c r="A55" t="s" s="6">
@@ -3841,8 +3943,13 @@
       <c r="H55" s="7">
         <v>0.229885057471264</v>
       </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="9"/>
+      <c r="I55" s="7">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="J55" s="8">
+        <f>(LARGE(D55:G55,1)+LARGE(D55:G55,2))/2*0.35+(H55+I55)/2*0.65</f>
+        <v>0.511119747503297</v>
+      </c>
     </row>
     <row r="56" ht="14.35" customHeight="1">
       <c r="A56" t="s" s="6">
@@ -3968,8 +4075,13 @@
       <c r="H59" s="7">
         <v>0</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="9"/>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8">
+        <f>(LARGE(D59:G59,1)+LARGE(D59:G59,2))/2*0.35+(H59+I59)/2*0.65</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" ht="14.35" customHeight="1">
       <c r="A60" t="s" s="6">
@@ -3996,8 +4108,13 @@
       <c r="H60" s="7">
         <v>0</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="9"/>
+      <c r="I60" s="7">
+        <v>0.523076923076923</v>
+      </c>
+      <c r="J60" s="8">
+        <f>(LARGE(D60:G60,1)+LARGE(D60:G60,2))/2*0.35+(H60+I60)/2*0.65</f>
+        <v>0.494180327868853</v>
+      </c>
     </row>
     <row r="61" ht="14.35" customHeight="1">
       <c r="A61" t="s" s="6">
@@ -4057,8 +4174,13 @@
       <c r="H62" s="7">
         <v>0.310344827586207</v>
       </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="9"/>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8">
+        <f>(LARGE(D62:G62,1)+LARGE(D62:G62,2))/2*0.35+(H62+I62)/2*0.65</f>
+        <v>0.307741913926758</v>
+      </c>
     </row>
     <row r="63" ht="14.35" customHeight="1">
       <c r="A63" t="s" s="6">
@@ -4118,8 +4240,13 @@
       <c r="H64" s="7">
         <v>0.6091954022988511</v>
       </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="9"/>
+      <c r="I64" s="7">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="J64" s="8">
+        <f>(LARGE(D64:G64,1)+LARGE(D64:G64,2))/2*0.35+(H64+I64)/2*0.65</f>
+        <v>0.772168833615979</v>
+      </c>
     </row>
     <row r="65" ht="14.35" customHeight="1">
       <c r="A65" t="s" s="6">
@@ -4278,8 +4405,13 @@
       <c r="H69" s="7">
         <v>0.367816091954023</v>
       </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="9"/>
+      <c r="I69" s="7">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="J69" s="8">
+        <f>(LARGE(D69:G69,1)+LARGE(D69:G69,2))/2*0.35+(H69+I69)/2*0.65</f>
+        <v>0.465954958567228</v>
+      </c>
     </row>
     <row r="70" ht="14.35" customHeight="1">
       <c r="A70" t="s" s="6">
@@ -4372,8 +4504,13 @@
       <c r="H72" s="7">
         <v>0.425287356321839</v>
       </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="9"/>
+      <c r="I72" s="7">
+        <v>0.446153846153846</v>
+      </c>
+      <c r="J72" s="8">
+        <f>(LARGE(D72:G72,1)+LARGE(D72:G72,2))/2*0.35+(H72+I72)/2*0.65</f>
+        <v>0.560301724137931</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cw21062022.xlsx
+++ b/cw21062022.xlsx
@@ -2525,11 +2525,11 @@
         <v>0.298850574712644</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>0.415384615384615</v>
       </c>
       <c r="J12" s="8">
         <f>(LARGE(D12:G12,1)+LARGE(D12:G12,2))/2*0.35+(H12+I12)/2*0.65</f>
-        <v>0.388793103448276</v>
+        <v>0.523793103448276</v>
       </c>
     </row>
     <row r="13" ht="14.35" customHeight="1">
@@ -2839,27 +2839,14 @@
       <c r="C22" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0.310344827586207</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="8">
-        <f>(LARGE(D22:G22,1)+LARGE(D22:G22,2))/2*0.35+(H22+I22)/2*0.65</f>
-        <v>0.100862068965517</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" ht="14.35" customHeight="1">
@@ -4112,8 +4099,7 @@
         <v>0.523076923076923</v>
       </c>
       <c r="J60" s="8">
-        <f>(LARGE(D60:G60,1)+LARGE(D60:G60,2))/2*0.35+(H60+I60)/2*0.65</f>
-        <v>0.494180327868853</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" ht="14.35" customHeight="1">
